--- a/scripts/Dragonborn.xlsx
+++ b/scripts/Dragonborn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="433">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>barrel-chested</t>
-  </si>
-  <si>
-    <t>Herculean</t>
   </si>
   <si>
     <t>hulking</t>
@@ -1783,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1795,15 +1792,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -1815,7 +1812,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -1832,18 +1829,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -1856,7 +1853,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B7" s="6">
         <v>19</v>
@@ -1869,7 +1866,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -1882,7 +1879,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -1895,7 +1892,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -1908,7 +1905,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -1921,7 +1918,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -1934,7 +1931,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -1947,7 +1944,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -1960,7 +1957,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
@@ -1986,7 +1983,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -1999,7 +1996,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -2012,7 +2009,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -2025,7 +2022,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -2038,7 +2035,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -2051,7 +2048,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -2064,7 +2061,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -2090,7 +2087,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2103,7 +2100,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -2116,7 +2113,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -2129,7 +2126,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -2142,7 +2139,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -2155,7 +2152,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -2168,7 +2165,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -2181,7 +2178,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -2194,7 +2191,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -2207,7 +2204,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -2220,7 +2217,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -2233,7 +2230,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -2246,7 +2243,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -2259,7 +2256,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -2272,7 +2269,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -2285,7 +2282,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -2298,7 +2295,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -2311,7 +2308,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -2324,7 +2321,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -2337,7 +2334,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B44">
         <v>0.1</v>
@@ -2350,7 +2347,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -2363,7 +2360,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -2376,7 +2373,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -2389,7 +2386,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -2402,7 +2399,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -2415,7 +2412,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -2428,7 +2425,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -2441,7 +2438,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -2454,7 +2451,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -2467,7 +2464,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -2480,7 +2477,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -2493,7 +2490,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
@@ -2506,7 +2503,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
@@ -2519,7 +2516,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
@@ -2532,7 +2529,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
@@ -2545,7 +2542,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
@@ -2558,7 +2555,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
@@ -2571,7 +2568,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
@@ -2584,7 +2581,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
@@ -2597,7 +2594,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
@@ -2610,7 +2607,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
@@ -2623,7 +2620,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
@@ -2636,7 +2633,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B67" s="6">
         <v>0.1</v>
@@ -2649,7 +2646,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B68" s="6">
         <v>0.1</v>
@@ -2662,7 +2659,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B69" s="6">
         <v>0.1</v>
@@ -2675,20 +2672,20 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70" s="6">
         <v>0.1</v>
       </c>
       <c r="C70" s="10" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C88" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B71" s="6">
         <v>0.1</v>
@@ -2701,7 +2698,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B72" s="6">
         <v>0.1</v>
@@ -2714,7 +2711,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B73" s="6">
         <v>0.1</v>
@@ -2727,7 +2724,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B74" s="6">
         <v>0.1</v>
@@ -2740,7 +2737,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B75" s="6">
         <v>0.1</v>
@@ -2753,7 +2750,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B76" s="6">
         <v>0.1</v>
@@ -2766,7 +2763,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B77" s="6">
         <v>0.1</v>
@@ -2779,7 +2776,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B78" s="6">
         <v>0.1</v>
@@ -2792,7 +2789,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B79" s="6">
         <v>0.1</v>
@@ -2805,7 +2802,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B80" s="6">
         <v>0.1</v>
@@ -2818,7 +2815,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B81" s="6">
         <v>0.1</v>
@@ -2831,7 +2828,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B82" s="6">
         <v>0.1</v>
@@ -2844,7 +2841,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B83" s="5">
         <v>0.1</v>
@@ -2857,7 +2854,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B84" s="5">
         <v>0.1</v>
@@ -2870,7 +2867,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B85" s="5">
         <v>0.1</v>
@@ -2883,7 +2880,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B86" s="5">
         <v>0.1</v>
@@ -2896,7 +2893,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B87" s="5">
         <v>0.1</v>
@@ -2909,7 +2906,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B88" s="5">
         <v>0.1</v>
@@ -2944,15 +2941,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -2964,7 +2961,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -2981,18 +2978,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5">
         <v>8</v>
@@ -3004,7 +3001,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="6">
         <v>7</v>
@@ -3016,7 +3013,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -3028,7 +3025,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -3040,7 +3037,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
@@ -3052,7 +3049,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B11" s="5">
         <v>0.1</v>
@@ -3064,7 +3061,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
@@ -3076,7 +3073,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
@@ -3088,7 +3085,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
@@ -3100,7 +3097,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
@@ -3112,7 +3109,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -3124,7 +3121,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -3136,7 +3133,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -3148,7 +3145,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -3160,7 +3157,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -3172,7 +3169,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
@@ -3184,7 +3181,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -3218,15 +3215,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -3238,7 +3235,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -3255,18 +3252,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
@@ -3278,7 +3275,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
@@ -3290,7 +3287,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -3302,7 +3299,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -3314,7 +3311,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
@@ -3326,7 +3323,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
@@ -3338,7 +3335,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
@@ -3350,7 +3347,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
@@ -3362,7 +3359,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
@@ -3374,7 +3371,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
@@ -3386,7 +3383,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -3398,7 +3395,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -3410,7 +3407,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -3422,7 +3419,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -3434,7 +3431,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -3446,7 +3443,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
@@ -3458,7 +3455,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -3470,7 +3467,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -3504,15 +3501,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -3524,7 +3521,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -3541,18 +3538,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -3565,7 +3562,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7">
         <v>18</v>
@@ -3578,7 +3575,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8">
         <v>16</v>
@@ -3591,7 +3588,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -3604,7 +3601,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10">
         <v>12</v>
@@ -3617,7 +3614,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3630,7 +3627,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>8</v>
@@ -3643,7 +3640,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B13">
         <v>6</v>
@@ -3656,7 +3653,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -3669,7 +3666,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -3682,7 +3679,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B16">
         <v>0.1</v>
@@ -3695,7 +3692,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B17">
         <v>0.1</v>
@@ -3708,7 +3705,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B18">
         <v>0.1</v>
@@ -3721,7 +3718,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>0.1</v>
@@ -3734,7 +3731,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B20">
         <v>0.1</v>
@@ -3747,7 +3744,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B21">
         <v>0.1</v>
@@ -3760,7 +3757,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B22">
         <v>0.1</v>
@@ -3773,7 +3770,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B23">
         <v>0.1</v>
@@ -3786,7 +3783,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B24">
         <v>0.1</v>
@@ -3799,7 +3796,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B25">
         <v>0.1</v>
@@ -3812,7 +3809,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>0.1</v>
@@ -3825,7 +3822,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B27">
         <v>0.1</v>
@@ -3838,7 +3835,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B28">
         <v>0.1</v>
@@ -3851,7 +3848,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B29">
         <v>0.1</v>
@@ -3864,7 +3861,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B30">
         <v>0.1</v>
@@ -3877,7 +3874,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B31">
         <v>0.1</v>
@@ -3890,7 +3887,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B32">
         <v>0.1</v>
@@ -3903,7 +3900,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -3916,7 +3913,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B34">
         <v>0.1</v>
@@ -3929,7 +3926,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B35">
         <v>0.1</v>
@@ -3942,7 +3939,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>0.1</v>
@@ -3955,7 +3952,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B37">
         <v>0.1</v>
@@ -3968,20 +3965,20 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B38">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C54" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B39">
         <v>0.1</v>
@@ -3994,7 +3991,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B40">
         <v>0.1</v>
@@ -4007,7 +4004,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>0.1</v>
@@ -4020,7 +4017,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B42">
         <v>0.1</v>
@@ -4033,7 +4030,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B43">
         <v>0.1</v>
@@ -4046,7 +4043,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B44">
         <v>0.1</v>
@@ -4059,7 +4056,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B45">
         <v>0.1</v>
@@ -4072,7 +4069,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>0.1</v>
@@ -4085,7 +4082,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B47">
         <v>0.1</v>
@@ -4098,7 +4095,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B48">
         <v>0.1</v>
@@ -4111,7 +4108,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -4124,7 +4121,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B50">
         <v>0.1</v>
@@ -4137,7 +4134,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B51">
         <v>0.1</v>
@@ -4150,7 +4147,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B52">
         <v>0.1</v>
@@ -4163,7 +4160,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B53">
         <v>0.1</v>
@@ -4176,7 +4173,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54">
         <v>0.1</v>
@@ -4210,15 +4207,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -4230,7 +4227,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -4247,18 +4244,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -4271,7 +4268,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B7" s="6">
         <v>19</v>
@@ -4284,7 +4281,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -4297,7 +4294,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -4310,7 +4307,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -4323,7 +4320,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -4336,7 +4333,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -4349,7 +4346,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -4362,7 +4359,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -4375,7 +4372,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
@@ -4388,7 +4385,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
@@ -4401,7 +4398,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -4414,7 +4411,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -4427,7 +4424,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -4440,7 +4437,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -4453,7 +4450,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -4466,7 +4463,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -4479,7 +4476,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
@@ -4492,7 +4489,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
@@ -4505,7 +4502,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
@@ -4518,7 +4515,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -4531,7 +4528,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -4544,7 +4541,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -4557,7 +4554,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -4570,7 +4567,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -4583,7 +4580,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -4596,7 +4593,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -4609,7 +4606,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -4622,7 +4619,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -4635,7 +4632,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -4648,7 +4645,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -4661,7 +4658,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -4674,20 +4671,20 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C61" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -4700,7 +4697,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -4713,7 +4710,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -4726,7 +4723,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -4739,7 +4736,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -4752,7 +4749,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
@@ -4765,7 +4762,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -4778,7 +4775,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -4791,7 +4788,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -4804,7 +4801,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -4817,7 +4814,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -4830,7 +4827,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -4843,7 +4840,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -4856,7 +4853,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -4869,7 +4866,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -4882,7 +4879,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -4895,7 +4892,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -4908,7 +4905,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
@@ -4921,7 +4918,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
@@ -4934,7 +4931,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
@@ -4947,7 +4944,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
@@ -4960,7 +4957,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
@@ -4973,7 +4970,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
@@ -4994,10 +4991,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5008,46 +5005,46 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>5</v>
+        <f>COUNTIF(C$6:C98, "common")</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f>B2*B2</f>
         <v>64</v>
       </c>
       <c r="C3">
-        <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>4</v>
+        <f>COUNTIF(C$6:C98, "rare")</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -5058,13 +5055,13 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C13" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
@@ -5112,14 +5109,14 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
@@ -5127,72 +5124,60 @@
         <v>8</v>
       </c>
       <c r="B12" s="5">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B13" s="5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f>IF(B13&gt;=1,"common","rare")</f>
+        <v>common</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1,"common","rare")</f>
-        <v>rare</v>
-      </c>
+      <c r="A14" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="10"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="10"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C18">
@@ -5218,15 +5203,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -5238,7 +5223,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3">
         <f>B2*B2</f>
@@ -5254,18 +5239,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="5">
         <v>10</v>
@@ -5277,7 +5262,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="5">
         <v>9</v>
@@ -5289,7 +5274,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
@@ -5301,7 +5286,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
@@ -5313,7 +5298,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5">
         <v>0.1</v>
@@ -5325,7 +5310,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="12">
         <v>0.1</v>
@@ -5395,15 +5380,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
@@ -5415,7 +5400,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -5432,18 +5417,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -5456,7 +5441,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -5469,7 +5454,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -5482,7 +5467,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
@@ -5495,7 +5480,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -5508,7 +5493,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
@@ -5521,7 +5506,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -5534,7 +5519,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -5547,7 +5532,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
@@ -5560,7 +5545,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -5573,7 +5558,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -5586,7 +5571,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -5599,7 +5584,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -5612,7 +5597,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -5625,7 +5610,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -5638,7 +5623,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -5651,7 +5636,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -5664,7 +5649,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -5677,7 +5662,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
@@ -5690,7 +5675,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
@@ -5703,7 +5688,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
@@ -5716,7 +5701,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
@@ -5729,7 +5714,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
@@ -5742,7 +5727,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -5755,7 +5740,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -5768,7 +5753,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -5781,7 +5766,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -5794,7 +5779,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -5807,7 +5792,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -5820,7 +5805,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -5833,7 +5818,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -5846,7 +5831,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -5859,7 +5844,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -5872,7 +5857,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -5885,7 +5870,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -6155,15 +6140,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -6175,7 +6160,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -6192,18 +6177,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -6216,7 +6201,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="6">
         <v>18</v>
@@ -6229,7 +6214,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B8" s="6">
         <v>16</v>
@@ -6242,7 +6227,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B9" s="6">
         <v>14</v>
@@ -6255,7 +6240,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B10" s="6">
         <v>12</v>
@@ -6268,7 +6253,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="6">
         <v>10</v>
@@ -6281,7 +6266,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6">
         <v>8</v>
@@ -6294,7 +6279,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B13" s="6">
         <v>6</v>
@@ -6307,7 +6292,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
@@ -6320,7 +6305,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6">
         <v>2</v>
@@ -6333,7 +6318,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B16" s="6">
         <v>1</v>
@@ -6346,7 +6331,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="6">
         <v>0.1</v>
@@ -6359,7 +6344,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -6372,7 +6357,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -6385,7 +6370,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -6398,7 +6383,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -6411,7 +6396,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -6424,7 +6409,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
@@ -6437,7 +6422,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
@@ -6450,7 +6435,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
@@ -6463,7 +6448,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -6476,7 +6461,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -6489,7 +6474,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -6502,7 +6487,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -6515,7 +6500,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -6528,7 +6513,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -6541,7 +6526,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -6554,7 +6539,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -6567,7 +6552,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -6580,7 +6565,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -6593,7 +6578,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -6606,7 +6591,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -6619,7 +6604,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -6632,7 +6617,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -6645,7 +6630,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -6658,7 +6643,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -6671,7 +6656,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -6684,7 +6669,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -6697,7 +6682,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
@@ -6710,7 +6695,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -6723,7 +6708,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -6736,7 +6721,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -6749,7 +6734,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -6762,7 +6747,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -6775,7 +6760,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -6788,7 +6773,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -6801,7 +6786,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -6814,7 +6799,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -6827,7 +6812,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -6840,7 +6825,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -6853,7 +6838,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
@@ -6866,7 +6851,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
@@ -6879,7 +6864,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
@@ -6892,7 +6877,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
@@ -6905,7 +6890,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
@@ -6918,7 +6903,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
@@ -6931,7 +6916,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
@@ -6944,7 +6929,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
@@ -6957,7 +6942,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
@@ -6970,7 +6955,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
@@ -6983,7 +6968,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
@@ -6996,7 +6981,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B67" s="6">
         <v>0.1</v>
@@ -7009,7 +6994,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B68" s="6">
         <v>0.1</v>
@@ -7022,7 +7007,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B69" s="6">
         <v>0.1</v>
@@ -7035,20 +7020,20 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B70" s="6">
         <v>0.1</v>
       </c>
       <c r="C70" s="10" t="str">
-        <f t="shared" ref="C70:C101" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C70:C80" si="2">IF(B70&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B71" s="6">
         <v>0.1</v>
@@ -7061,7 +7046,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B72" s="6">
         <v>0.1</v>
@@ -7074,7 +7059,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B73" s="6">
         <v>0.1</v>
@@ -7087,7 +7072,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B74" s="6">
         <v>0.1</v>
@@ -7100,7 +7085,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B75" s="6">
         <v>0.1</v>
@@ -7113,7 +7098,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B76" s="6">
         <v>0.1</v>
@@ -7125,7 +7110,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B77" s="6">
         <v>0.1</v>
@@ -7137,7 +7122,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B78" s="6">
         <v>0.1</v>
@@ -7149,7 +7134,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B79" s="6">
         <v>0.1</v>
@@ -7161,7 +7146,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B80" s="6">
         <v>0.1</v>
@@ -7195,15 +7180,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -7215,7 +7200,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -7232,18 +7217,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
@@ -7256,7 +7241,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7" s="6">
         <v>6</v>
@@ -7269,7 +7254,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="6">
         <v>4</v>
@@ -7282,7 +7267,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B9" s="6">
         <v>0.1</v>
@@ -7295,7 +7280,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -7308,7 +7293,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -7321,7 +7306,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -7334,7 +7319,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B13" s="6">
         <v>0.1</v>
@@ -7347,7 +7332,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -7360,7 +7345,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B15">
         <v>0.1</v>
@@ -7373,7 +7358,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="6">
         <v>0.1</v>
@@ -7593,15 +7578,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
@@ -7613,7 +7598,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -7630,18 +7615,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -7654,7 +7639,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -7667,7 +7652,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -7680,7 +7665,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
@@ -7693,7 +7678,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -7706,7 +7691,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
@@ -7719,7 +7704,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -7732,7 +7717,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -7745,7 +7730,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -7758,7 +7743,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -7771,7 +7756,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -7784,7 +7769,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -7797,7 +7782,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -7810,7 +7795,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -7823,7 +7808,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -7836,7 +7821,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -7849,7 +7834,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -7862,7 +7847,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
@@ -7875,7 +7860,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
@@ -7888,7 +7873,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
@@ -7901,43 +7886,43 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
@@ -7945,7 +7930,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
@@ -7953,7 +7938,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
@@ -7961,7 +7946,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
@@ -7969,7 +7954,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
@@ -7977,7 +7962,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
@@ -7985,7 +7970,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="10"/>
@@ -7993,7 +7978,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="10"/>
@@ -8001,7 +7986,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="10"/>
@@ -8009,7 +7994,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
@@ -8017,7 +8002,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
@@ -8025,7 +8010,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
@@ -8033,7 +8018,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="10"/>
@@ -8041,7 +8026,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
@@ -8049,7 +8034,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="10"/>
@@ -8057,7 +8042,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="10"/>
@@ -8065,7 +8050,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
@@ -8073,7 +8058,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="10"/>
@@ -8108,15 +8093,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -8128,7 +8113,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -8145,18 +8130,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -8169,7 +8154,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -8182,7 +8167,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -8195,7 +8180,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -8208,7 +8193,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -8221,7 +8206,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -8234,7 +8219,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -8247,7 +8232,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -8260,7 +8245,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -8273,7 +8258,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -8286,7 +8271,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -8299,7 +8284,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -8312,7 +8297,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -8325,7 +8310,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -8338,7 +8323,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -8351,7 +8336,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -8364,7 +8349,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -8377,7 +8362,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
@@ -8390,7 +8375,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
@@ -8403,7 +8388,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
@@ -8416,7 +8401,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -8429,7 +8414,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -8442,7 +8427,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -8455,7 +8440,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -8468,7 +8453,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -8481,7 +8466,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -8494,7 +8479,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -8507,7 +8492,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -8520,7 +8505,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -8533,7 +8518,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -8546,7 +8531,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -8559,7 +8544,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -8572,7 +8557,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -8585,7 +8570,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -8598,7 +8583,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -8611,7 +8596,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B41">
         <v>0.1</v>
@@ -8624,7 +8609,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
@@ -8632,7 +8617,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="10"/>
@@ -8640,7 +8625,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="10"/>
@@ -8648,21 +8633,21 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
@@ -8691,15 +8676,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -8711,7 +8696,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -8728,18 +8713,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="6">
         <v>6</v>
@@ -8752,7 +8737,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B7" s="6">
         <v>4</v>
@@ -8765,7 +8750,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B8" s="6">
         <v>2</v>
@@ -8778,7 +8763,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B9" s="6">
         <v>0.1</v>
@@ -8791,7 +8776,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B10" s="6">
         <v>0.1</v>
@@ -8804,7 +8789,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B11" s="6">
         <v>0.1</v>
@@ -8817,7 +8802,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="6">
         <v>0.1</v>
@@ -8830,7 +8815,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B13" s="6">
         <v>0.1</v>
@@ -8843,7 +8828,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -9010,15 +8995,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
@@ -9030,7 +9015,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -9047,18 +9032,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -9071,7 +9056,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -9084,7 +9069,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -9097,7 +9082,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
@@ -9110,7 +9095,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -9123,7 +9108,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
@@ -9136,7 +9121,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -9149,7 +9134,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -9162,7 +9147,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
@@ -9175,7 +9160,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -9188,7 +9173,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -9201,7 +9186,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -9214,7 +9199,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -9227,7 +9212,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -9240,7 +9225,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -9253,7 +9238,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -9266,7 +9251,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -9279,7 +9264,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
@@ -9292,7 +9277,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
@@ -9305,7 +9290,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
@@ -9318,7 +9303,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -9331,7 +9316,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -9344,7 +9329,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -9357,7 +9342,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -9370,7 +9355,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -9383,7 +9368,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -9396,7 +9381,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -9409,7 +9394,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -9422,7 +9407,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -9435,7 +9420,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -9448,7 +9433,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -9483,15 +9468,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
@@ -9503,7 +9488,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -9520,18 +9505,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -9544,7 +9529,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B7" s="5">
         <v>11</v>
@@ -9557,7 +9542,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B8" s="5">
         <v>10</v>
@@ -9570,7 +9555,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5">
         <v>9</v>
@@ -9583,7 +9568,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
@@ -9596,7 +9581,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B11" s="5">
         <v>7</v>
@@ -9609,7 +9594,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -9622,7 +9607,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
@@ -9635,7 +9620,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -9648,7 +9633,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
@@ -9661,7 +9646,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -9674,7 +9659,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -9687,7 +9672,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -9700,7 +9685,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -9713,7 +9698,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -9726,7 +9711,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
@@ -9739,7 +9724,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -9752,7 +9737,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -9765,7 +9750,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>

--- a/scripts/Dragonborn.xlsx
+++ b/scripts/Dragonborn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="433">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="434">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1340,6 +1340,9 @@
   </si>
   <si>
     <t>mousy</t>
+  </si>
+  <si>
+    <t>common</t>
   </si>
 </sst>
 </file>
@@ -1443,8 +1446,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1488,7 +1495,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="19">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1496,6 +1503,8 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1503,6 +1512,8 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1780,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2927,10 +2938,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2955,8 +2966,8 @@
         <v>8</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>5</v>
+        <f>COUNTIF(C$6:C102, "common")</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -2968,7 +2979,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C99, "rare")</f>
+        <f>COUNTIF(C$6:C102, "rare")</f>
         <v>12</v>
       </c>
     </row>
@@ -2995,7 +3006,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C22" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C25" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3049,43 +3060,43 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B11" s="5">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C11:C13" si="1">IF(B11&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B12" s="5">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" si="1"/>
+        <v>common</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B13" s="5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" si="1"/>
+        <v>common</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
@@ -3097,7 +3108,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
@@ -3109,7 +3120,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -3121,7 +3132,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -3133,7 +3144,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -3145,7 +3156,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -3157,7 +3168,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -3169,7 +3180,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
@@ -3181,12 +3192,48 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="10" t="str">
+      <c r="B25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="10" t="str">
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
@@ -3201,10 +3248,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3229,8 +3276,8 @@
         <v>8</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>6</v>
+        <f>COUNTIF(C$6:C101, "common")</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -3242,7 +3289,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C99, "rare")</f>
+        <f>COUNTIF(C$6:C101, "rare")</f>
         <v>12</v>
       </c>
     </row>
@@ -3335,145 +3382,169 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="5">
-        <v>0.1</v>
+        <v>45</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>rare</v>
+        <f t="shared" ref="C12:C13" si="1">IF(B12&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13" s="5">
-        <v>0.1</v>
+        <v>45</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" ref="C13:C23" si="1">IF(B13&gt;=1, "common", "rare")</f>
-        <v>rare</v>
+        <f t="shared" si="1"/>
+        <v>common</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C15:C25" si="2">IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B23" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
     </row>
@@ -3487,10 +3558,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D64"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3515,8 +3586,8 @@
         <v>20</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>10</v>
+        <f>COUNTIF(C$6:C109, "common")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -3528,7 +3599,7 @@
         <v>400</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C99, "rare")</f>
+        <f>COUNTIF(C$6:C109, "rare")</f>
         <v>39</v>
       </c>
     </row>
@@ -3555,56 +3626,56 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="6">
+        <v>19</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f t="shared" ref="C7" si="1">IF(B7&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>71</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>18</v>
       </c>
-      <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8">
-        <v>16</v>
-      </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>common</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B9">
-        <v>14</v>
+        <v>71</v>
+      </c>
+      <c r="B9" s="6">
+        <v>17</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D9" s="8"/>
+        <f t="shared" ref="C9" si="2">IF(B9&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B10">
-        <v>12</v>
+        <v>102</v>
+      </c>
+      <c r="B10" s="6">
+        <v>16</v>
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3613,11 +3684,11 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>96</v>
+      <c r="A11" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="B11">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3627,10 +3698,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12">
-        <v>8</v>
+        <v>90</v>
+      </c>
+      <c r="B12" s="6">
+        <v>14</v>
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3639,24 +3710,24 @@
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B13">
-        <v>6</v>
+      <c r="A13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="6">
+        <v>13</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C13" si="3">IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="5">
-        <v>4</v>
+      <c r="A14" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B14">
+        <v>12</v>
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -3666,150 +3737,150 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
+        <v>104</v>
+      </c>
+      <c r="B15" s="6">
+        <v>11</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C15" si="4">IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B16">
-        <v>0.1</v>
+        <v>96</v>
+      </c>
+      <c r="B16" s="6">
+        <v>10</v>
       </c>
       <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B17">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C17" si="5">IF(B17&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>98</v>
-      </c>
-      <c r="B18">
-        <v>0.1</v>
+        <v>86</v>
+      </c>
+      <c r="B18" s="6">
+        <v>8</v>
       </c>
       <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>97</v>
-      </c>
-      <c r="B19">
-        <v>0.1</v>
+        <v>86</v>
+      </c>
+      <c r="B19" s="6">
+        <v>7</v>
       </c>
       <c r="C19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>95</v>
+      <c r="A20" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="B20">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="C20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21">
-        <v>0.1</v>
+      <c r="A21" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B21" s="6">
+        <v>5</v>
       </c>
       <c r="C21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22">
-        <v>0.1</v>
+        <v>74</v>
+      </c>
+      <c r="B22" s="6">
+        <v>4</v>
       </c>
       <c r="C22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>74</v>
       </c>
       <c r="B23">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24">
-        <v>0.1</v>
+      <c r="A24" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="6">
+        <v>2</v>
       </c>
       <c r="C24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>89</v>
-      </c>
-      <c r="B25">
-        <v>0.1</v>
+      <c r="A25" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" s="6">
+        <v>1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C25" si="6">IF(B25&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="B26">
         <v>0.1</v>
@@ -3822,7 +3893,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="B27">
         <v>0.1</v>
@@ -3835,7 +3906,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="B28">
         <v>0.1</v>
@@ -3848,7 +3919,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B29">
         <v>0.1</v>
@@ -3861,7 +3932,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B30">
         <v>0.1</v>
@@ -3874,7 +3945,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B31">
         <v>0.1</v>
@@ -3887,7 +3958,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B32">
         <v>0.1</v>
@@ -3900,7 +3971,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -3913,7 +3984,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B34">
         <v>0.1</v>
@@ -3926,7 +3997,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="B35">
         <v>0.1</v>
@@ -3939,7 +4010,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B36">
         <v>0.1</v>
@@ -3952,7 +4023,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B37">
         <v>0.1</v>
@@ -3965,221 +4036,351 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B38">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" ref="C38:C54" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B39">
         <v>0.1</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="B40">
         <v>0.1</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B41">
         <v>0.1</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B42">
         <v>0.1</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>0.1</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>0.1</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B45">
         <v>0.1</v>
       </c>
       <c r="C45" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D45" s="9"/>
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B46">
         <v>0.1</v>
       </c>
       <c r="C46" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D46" s="9"/>
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B47">
         <v>0.1</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D47" s="9"/>
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B48">
         <v>0.1</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C48:C64" si="7">IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B49">
         <v>0.1</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>rare</v>
       </c>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="11" t="s">
-        <v>108</v>
+      <c r="A50" t="s">
+        <v>72</v>
       </c>
       <c r="B50">
         <v>0.1</v>
       </c>
       <c r="C50" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D50" s="9"/>
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="11" t="s">
-        <v>107</v>
+      <c r="A51" t="s">
+        <v>70</v>
       </c>
       <c r="B51">
         <v>0.1</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>rare</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="11" t="s">
-        <v>106</v>
+      <c r="A52" t="s">
+        <v>69</v>
       </c>
       <c r="B52">
         <v>0.1</v>
       </c>
       <c r="C52" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="7"/>
         <v>rare</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="11" t="s">
-        <v>105</v>
+      <c r="A53" t="s">
+        <v>68</v>
       </c>
       <c r="B53">
         <v>0.1</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D53" s="9"/>
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54">
+        <v>0.1</v>
+      </c>
+      <c r="C54" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D54" s="8"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B55">
+        <v>0.1</v>
+      </c>
+      <c r="C55" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D55" s="9"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56">
+        <v>0.1</v>
+      </c>
+      <c r="C56" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D56" s="9"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B57">
+        <v>0.1</v>
+      </c>
+      <c r="C57" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D57" s="9"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>0.1</v>
+      </c>
+      <c r="C58" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D58" s="8"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59">
+        <v>0.1</v>
+      </c>
+      <c r="C59" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D59" s="8"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60">
+        <v>0.1</v>
+      </c>
+      <c r="C60" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D60" s="9"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61">
+        <v>0.1</v>
+      </c>
+      <c r="C61" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="B62">
+        <v>0.1</v>
+      </c>
+      <c r="C62" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63">
+        <v>0.1</v>
+      </c>
+      <c r="C63" s="10" t="str">
+        <f t="shared" si="7"/>
+        <v>rare</v>
+      </c>
+      <c r="D63" s="9"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>101</v>
       </c>
-      <c r="B54">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="10" t="str">
-        <f t="shared" si="1"/>
+      <c r="B64">
+        <v>0.1</v>
+      </c>
+      <c r="C64" s="10" t="str">
+        <f t="shared" si="7"/>
         <v>rare</v>
       </c>
     </row>
@@ -4193,10 +4394,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D61"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4221,8 +4422,8 @@
         <v>20</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C98, "common")</f>
-        <v>15</v>
+        <f>COUNTIF(C$6:C103, "common")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -4234,7 +4435,7 @@
         <v>400</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C98, "rare")</f>
+        <f>COUNTIF(C$6:C103, "rare")</f>
         <v>41</v>
       </c>
     </row>
@@ -4261,7 +4462,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C42" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -4450,72 +4651,70 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B21" s="6">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C21:C23" si="1">IF(B21&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B22" s="6">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" si="1"/>
+        <v>common</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B23" s="6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" si="1"/>
+        <v>common</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>126</v>
-      </c>
-      <c r="B24" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+      <c r="A24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>127</v>
-      </c>
-      <c r="B25" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+      <c r="A25" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B25" s="5">
+        <v>1</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>433</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -4528,7 +4727,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -4541,7 +4740,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -4554,7 +4753,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -4567,7 +4766,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -4580,7 +4779,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>128</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -4593,7 +4792,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -4606,7 +4805,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -4619,7 +4818,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -4632,7 +4831,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -4645,7 +4844,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -4658,7 +4857,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>160</v>
+        <v>32</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -4671,315 +4870,380 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" ref="C38:C61" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>159</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="8"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>160</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="8"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C43:C66" si="2">IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="8"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D44" s="8"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
       </c>
       <c r="C45" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D45" s="8"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
       </c>
       <c r="C46" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D46" s="8"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>36</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D47" s="8"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D48" s="8"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D49" s="8"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
       </c>
       <c r="C50" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D50" s="8"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D51" s="8"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
       </c>
       <c r="C52" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D52" s="8"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D53" s="8"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
       </c>
       <c r="C54" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D54" s="8"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
       </c>
       <c r="C55" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D55" s="8"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
       </c>
       <c r="C56" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D56" s="8"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
       </c>
       <c r="C57" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D57" s="8"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
       </c>
       <c r="C58" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D58" s="8"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
       </c>
       <c r="C59" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D59" s="8"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
       </c>
       <c r="C60" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>rare</v>
       </c>
       <c r="D60" s="8"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C61" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rare</v>
+      </c>
+      <c r="D61" s="8"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>149</v>
+      </c>
+      <c r="B62" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C62" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rare</v>
+      </c>
+      <c r="D62" s="8"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>150</v>
+      </c>
+      <c r="B63" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C63" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rare</v>
+      </c>
+      <c r="D63" s="8"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C64" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rare</v>
+      </c>
+      <c r="D64" s="8"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C65" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rare</v>
+      </c>
+      <c r="D65" s="8"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>162</v>
       </c>
-      <c r="B61" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
-      <c r="D61" s="8"/>
+      <c r="B66" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C66" s="10" t="str">
+        <f t="shared" si="2"/>
+        <v>rare</v>
+      </c>
+      <c r="D66" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A6:C61">
@@ -4993,8 +5257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5189,10 +5453,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5217,8 +5481,8 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>4</v>
+        <f>COUNTIF(C$6:C105, "common")</f>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -5230,7 +5494,7 @@
         <v>100</v>
       </c>
       <c r="C3">
-        <f>COUNTIF(C$6:C99, "rare")</f>
+        <f>COUNTIF(C$6:C105, "rare")</f>
         <v>2</v>
       </c>
     </row>
@@ -5256,25 +5520,25 @@
         <v>10</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C11" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C17" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="5">
         <v>9</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C7" si="1">IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="5">
         <v>8</v>
@@ -5286,75 +5550,147 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" s="5">
         <v>7</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9" si="2">IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" s="5">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="5">
+        <v>5</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f t="shared" ref="C11" si="3">IF(B11&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="5">
+        <v>4</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f t="shared" ref="C13:C15" si="4">IF(B13&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f t="shared" ref="C14" si="5">IF(B14&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f t="shared" si="4"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="29" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-    </row>
-    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-    </row>
-    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
+      <c r="B17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+    </row>
+    <row r="35" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A5:C10">
@@ -5368,8 +5704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D80"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A41" sqref="A41:C51"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6126,10 +6462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D80"/>
+  <dimension ref="A1:D89"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A81" sqref="A81:E96"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6154,8 +6490,8 @@
         <v>20</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C101, "common")</f>
-        <v>11</v>
+        <f>COUNTIF(C$6:C110, "common")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -6167,7 +6503,7 @@
         <v>400</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C101, "rare")</f>
+        <f>COUNTIF(C$6:C110, "rare")</f>
         <v>64</v>
       </c>
     </row>
@@ -6194,30 +6530,30 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C46" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="B7" s="6">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C7" si="1">IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>71</v>
       </c>
       <c r="B8" s="6">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6227,23 +6563,23 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="B9" s="6">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C9" si="2">IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="6">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6253,23 +6589,23 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B11" s="6">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C11" si="3">IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="B12" s="6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6279,23 +6615,23 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="B13" s="6">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C13" si="4">IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B14" s="6">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6305,23 +6641,23 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="B15" s="6">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C15" si="5">IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B16" s="6">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C16" s="10" t="str">
         <f t="shared" si="0"/>
@@ -6331,124 +6667,124 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="B17" s="6">
-        <v>0.1</v>
+        <v>9</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C17" si="6">IF(B17&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>253</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6">
-        <v>0.1</v>
+        <v>8</v>
       </c>
       <c r="C18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>254</v>
+        <v>86</v>
       </c>
       <c r="B19" s="6">
-        <v>0.1</v>
+        <v>7</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C19" si="7">IF(B19&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>294</v>
+        <v>96</v>
       </c>
       <c r="B20" s="6">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="C20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>295</v>
+        <v>96</v>
       </c>
       <c r="B21" s="6">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C21" si="8">IF(B21&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>296</v>
+        <v>103</v>
       </c>
       <c r="B22" s="6">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="B23" s="6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C23" si="9">IF(B23&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>278</v>
+        <v>74</v>
       </c>
       <c r="B24" s="6">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>297</v>
+        <v>105</v>
       </c>
       <c r="B25" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>298</v>
+        <v>106</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -6461,7 +6797,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>299</v>
+        <v>253</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -6474,7 +6810,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -6487,7 +6823,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -6500,7 +6836,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>64</v>
+        <v>295</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -6513,7 +6849,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>296</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -6526,7 +6862,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>302</v>
+        <v>93</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -6539,7 +6875,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -6552,7 +6888,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -6565,7 +6901,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -6578,7 +6914,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -6591,7 +6927,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -6604,555 +6940,672 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>309</v>
+        <v>64</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>310</v>
+        <v>67</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
       </c>
       <c r="C45" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
       </c>
       <c r="C46" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="C47:C78" si="10">IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
       </c>
       <c r="C50" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>70</v>
+        <v>312</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
       </c>
       <c r="C52" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>314</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
       </c>
       <c r="C54" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
       </c>
       <c r="C55" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
       </c>
       <c r="C56" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
       </c>
       <c r="C57" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
       </c>
       <c r="C58" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
       </c>
       <c r="C59" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>328</v>
+        <v>70</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
       </c>
       <c r="C60" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
       </c>
       <c r="C61" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>272</v>
+        <v>101</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
       </c>
       <c r="C62" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
       </c>
       <c r="C63" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
       </c>
       <c r="C64" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>108</v>
+        <v>324</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
       </c>
       <c r="C65" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
       </c>
       <c r="C66" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B67" s="6">
         <v>0.1</v>
       </c>
       <c r="C67" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B68" s="6">
         <v>0.1</v>
       </c>
       <c r="C68" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B69" s="6">
         <v>0.1</v>
       </c>
       <c r="C69" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B70" s="6">
         <v>0.1</v>
       </c>
       <c r="C70" s="10" t="str">
-        <f t="shared" ref="C70:C80" si="2">IF(B70&gt;=1, "common", "rare")</f>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>88</v>
+        <v>272</v>
       </c>
       <c r="B71" s="6">
         <v>0.1</v>
       </c>
       <c r="C71" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="B72" s="6">
         <v>0.1</v>
       </c>
       <c r="C72" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>78</v>
+        <v>331</v>
       </c>
       <c r="B73" s="6">
         <v>0.1</v>
       </c>
       <c r="C73" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>288</v>
+        <v>108</v>
       </c>
       <c r="B74" s="6">
         <v>0.1</v>
       </c>
       <c r="C74" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="B75" s="6">
         <v>0.1</v>
       </c>
       <c r="C75" s="10" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="10"/>
         <v>rare</v>
       </c>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="B76" s="6">
         <v>0.1</v>
       </c>
       <c r="C76" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>rare</v>
+      </c>
+      <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="B77" s="6">
         <v>0.1</v>
       </c>
       <c r="C77" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>rare</v>
+      </c>
+      <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="B78" s="6">
         <v>0.1</v>
       </c>
       <c r="C78" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>rare</v>
+      </c>
+      <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>292</v>
+        <v>335</v>
       </c>
       <c r="B79" s="6">
         <v>0.1</v>
       </c>
       <c r="C79" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <f t="shared" ref="C79:C89" si="11">IF(B79&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+      <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B80" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C80" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+      <c r="D80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B81" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C81" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+      <c r="D81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C82" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+      <c r="D82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B83" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C83" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+      <c r="D83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B84" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C84" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B85" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C85" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B86" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C86" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B87" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C87" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B88" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C88" s="10" t="str">
+        <f t="shared" si="11"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B80" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="10" t="str">
-        <f t="shared" si="2"/>
+      <c r="B89" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C89" s="10" t="str">
+        <f t="shared" si="11"/>
         <v>rare</v>
       </c>
     </row>
@@ -7166,10 +7619,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:F34"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7194,8 +7647,8 @@
         <v>8</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>3</v>
+        <f>COUNTIF(C$6:C104, "common")</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -7207,7 +7660,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C99, "rare")</f>
+        <f>COUNTIF(C$6:C104, "rare")</f>
         <v>8</v>
       </c>
     </row>
@@ -7234,30 +7687,30 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C16" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C21" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>154</v>
+        <v>286</v>
       </c>
       <c r="B7" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D7" s="9"/>
+        <f t="shared" ref="C7" si="1">IF(B7&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+      <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B8" s="6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
@@ -7267,72 +7720,72 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>280</v>
+        <v>154</v>
       </c>
       <c r="B9" s="6">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D9" s="11"/>
+        <f t="shared" ref="C9" si="2">IF(B9&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="B10" s="6">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>common</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>282</v>
+        <v>143</v>
       </c>
       <c r="B11" s="6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D11" s="11"/>
+        <f t="shared" ref="C11:C13" si="3">IF(B11&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>283</v>
+        <v>143</v>
       </c>
       <c r="B12" s="6">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D12" s="11"/>
+        <f t="shared" si="3"/>
+        <v>common</v>
+      </c>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>284</v>
+        <v>143</v>
       </c>
       <c r="B13" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D13" s="11"/>
+        <f t="shared" si="3"/>
+        <v>common</v>
+      </c>
+      <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -7345,58 +7798,93 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="B15">
+        <v>281</v>
+      </c>
+      <c r="B15" s="6">
         <v>0.1</v>
       </c>
       <c r="C15" s="10" t="str">
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
-      <c r="D15" s="9"/>
+      <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D16" s="11"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D17" s="11"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D18" s="11"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D19" s="11"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="B20">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D16" s="9"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="9"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="9"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="10"/>
+      <c r="B21" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -7426,19 +7914,19 @@
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="5"/>
+      <c r="C26" s="10"/>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="5"/>
+      <c r="C27" s="10"/>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="5"/>
+      <c r="C28" s="10"/>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -7456,19 +7944,19 @@
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="6"/>
-      <c r="C31" s="10"/>
+      <c r="C31" s="5"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="6"/>
-      <c r="C32" s="10"/>
+      <c r="C32" s="5"/>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="10"/>
+      <c r="C33" s="5"/>
       <c r="D33" s="9"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -7551,8 +8039,38 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
+      <c r="B47" s="6"/>
       <c r="C47" s="10"/>
       <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="10"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C16">
@@ -7566,7 +8084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
@@ -8079,10 +8597,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D53"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48:G63"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8107,8 +8625,8 @@
         <v>20</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>14</v>
+        <f>COUNTIF(C$6:C105, "common")</f>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8120,7 +8638,7 @@
         <v>400</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C99, "rare")</f>
+        <f>COUNTIF(C$6:C105, "rare")</f>
         <v>22</v>
       </c>
     </row>
@@ -8147,7 +8665,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C41" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="11"/>
@@ -8323,85 +8841,85 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="B20" s="6">
-        <v>0.1</v>
+        <v>6</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C20:C21" si="1">IF(B20&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B21" s="6">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" si="1"/>
+        <v>common</v>
       </c>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="B22" s="6">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C22:C24" si="2">IF(B22&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D22" s="9"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>120</v>
+        <v>221</v>
       </c>
       <c r="B23" s="6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D23" s="11"/>
+        <f t="shared" si="2"/>
+        <v>common</v>
+      </c>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B24" s="6">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D24" s="11"/>
+        <f t="shared" si="2"/>
+        <v>common</v>
+      </c>
+      <c r="D24" s="9"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B25" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D25" s="11"/>
+        <f t="shared" ref="C25" si="3">IF(B25&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -8410,11 +8928,11 @@
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>26</v>
+        <v>244</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -8427,7 +8945,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -8440,7 +8958,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>224</v>
+        <v>120</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -8449,11 +8967,11 @@
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
-      <c r="D29" s="9"/>
+      <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -8462,11 +8980,11 @@
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
-      <c r="D30" s="9"/>
+      <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -8475,11 +8993,11 @@
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
-      <c r="D31" s="9"/>
+      <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -8488,11 +9006,11 @@
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
-      <c r="D32" s="9"/>
+      <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -8505,7 +9023,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -8518,7 +9036,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -8531,7 +9049,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -8544,7 +9062,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -8557,7 +9075,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -8570,7 +9088,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -8583,7 +9101,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -8596,9 +9114,9 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B41">
+        <v>237</v>
+      </c>
+      <c r="B41" s="6">
         <v>0.1</v>
       </c>
       <c r="C41" s="10" t="str">
@@ -8609,48 +9127,126 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B42" s="6"/>
-      <c r="C42" s="10"/>
+        <v>239</v>
+      </c>
+      <c r="B42" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C42" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
       <c r="D42" s="9"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B43" s="6"/>
-      <c r="C43" s="10"/>
+        <v>240</v>
+      </c>
+      <c r="B43" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C43" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="10"/>
+        <v>241</v>
+      </c>
+      <c r="B44" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C44" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
       <c r="D44" s="9"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="C45" s="10"/>
+        <v>242</v>
+      </c>
+      <c r="B45" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C45" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
       <c r="D45" s="9"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C46" s="10"/>
+        <v>243</v>
+      </c>
+      <c r="B46" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C46" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B47">
+        <v>0.1</v>
+      </c>
+      <c r="C47" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D47" s="9"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="10"/>
+      <c r="D49" s="9"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="9"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="10"/>
+      <c r="D51" s="9"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C52" s="10"/>
+      <c r="D52" s="9"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C47" s="10"/>
-      <c r="D47" s="9"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="9"/>
     </row>
   </sheetData>
   <sortState ref="A6:C47">
@@ -8662,10 +9258,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8690,8 +9286,8 @@
         <v>8</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>3</v>
+        <f>COUNTIF(C$6:C104, "common")</f>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -8703,7 +9299,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C99, "rare")</f>
+        <f>COUNTIF(C$6:C104, "rare")</f>
         <v>6</v>
       </c>
     </row>
@@ -8727,20 +9323,20 @@
         <v>210</v>
       </c>
       <c r="B6" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C14" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C19" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B7" s="6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" s="10" t="str">
         <f t="shared" si="0"/>
@@ -8750,124 +9346,159 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B8" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="C8:C9" si="1">IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B9" s="6">
-        <v>0.1</v>
+        <v>5</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" si="1"/>
+        <v>common</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B10" s="6">
-        <v>0.1</v>
+        <v>4</v>
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B11" s="6">
-        <v>0.1</v>
+        <v>3</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C11" si="2">IF(B11&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B12" s="6">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>rare</v>
+        <v>common</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B13" s="6">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C13" si="3">IF(B13&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B14" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D14" s="8"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B16" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D16" s="8"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D18" s="8"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B14" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="2"/>
+      <c r="B19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
@@ -8897,7 +9528,7 @@
       <c r="A24" s="2"/>
       <c r="B24" s="6"/>
       <c r="C24" s="10"/>
-      <c r="D24" s="8"/>
+      <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
@@ -8951,25 +9582,55 @@
       <c r="A33" s="2"/>
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
-      <c r="D33" s="2"/>
+      <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="2"/>
+      <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="6"/>
       <c r="C35" s="10"/>
-      <c r="D35" s="2"/>
+      <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="6"/>
       <c r="C36" s="10"/>
-      <c r="D36" s="2"/>
+      <c r="D36" s="8"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="2"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="2"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C14">
@@ -9454,10 +10115,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D24"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9482,8 +10143,8 @@
         <v>12</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C99, "common")</f>
-        <v>10</v>
+        <f>COUNTIF(C$6:C101, "common")</f>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9495,7 +10156,7 @@
         <v>144</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C99, "rare")</f>
+        <f>COUNTIF(C$6:C101, "rare")</f>
         <v>9</v>
       </c>
     </row>
@@ -9522,7 +10183,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C24" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C26" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -9646,33 +10307,33 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B16" s="5">
-        <v>0.1</v>
+        <v>2</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" ref="C16:C17" si="1">IF(B16&gt;=1, "common", "rare")</f>
+        <v>common</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B17" s="5">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
+        <f t="shared" si="1"/>
+        <v>common</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -9685,9 +10346,9 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B19" s="6">
+        <v>177</v>
+      </c>
+      <c r="B19" s="5">
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
@@ -9698,7 +10359,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -9711,20 +10372,20 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B21" s="5">
+        <v>165</v>
+      </c>
+      <c r="B21" s="6">
         <v>0.1</v>
       </c>
       <c r="C21" s="10" t="str">
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
-      <c r="D21" s="2"/>
+      <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -9737,7 +10398,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -9746,20 +10407,46 @@
         <f t="shared" si="0"/>
         <v>rare</v>
       </c>
-      <c r="D23" s="8"/>
+      <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D24" s="8"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D24" s="8"/>
+      <c r="B26" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D26" s="8"/>
     </row>
   </sheetData>
   <sortState ref="A6:C24">

--- a/scripts/Dragonborn.xlsx
+++ b/scripts/Dragonborn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="435">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -55,24 +55,9 @@
     <t>visible Adam's apple</t>
   </si>
   <si>
-    <t>burly</t>
-  </si>
-  <si>
-    <t>beefy</t>
-  </si>
-  <si>
-    <t>bulky</t>
-  </si>
-  <si>
-    <t>brawny</t>
-  </si>
-  <si>
     <t>barrel-chested</t>
   </si>
   <si>
-    <t>hulking</t>
-  </si>
-  <si>
     <t>rare</t>
   </si>
   <si>
@@ -1343,6 +1328,24 @@
   </si>
   <si>
     <t>common</t>
+  </si>
+  <si>
+    <t>impotent</t>
+  </si>
+  <si>
+    <t>wimpy</t>
+  </si>
+  <si>
+    <t>virile</t>
+  </si>
+  <si>
+    <t>well-endowed</t>
+  </si>
+  <si>
+    <t>effeminate</t>
+  </si>
+  <si>
+    <t>vixen</t>
   </si>
 </sst>
 </file>
@@ -1791,8 +1794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1803,15 +1806,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -1823,7 +1826,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -1840,18 +1843,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -1864,7 +1867,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="B7" s="6">
         <v>19</v>
@@ -1877,7 +1880,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -1890,7 +1893,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -1903,7 +1906,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -1916,7 +1919,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -1929,7 +1932,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -1942,7 +1945,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -1955,7 +1958,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -1968,7 +1971,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
@@ -1981,7 +1984,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
@@ -1994,7 +1997,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -2007,7 +2010,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -2020,7 +2023,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -2033,7 +2036,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -2046,7 +2049,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -2059,7 +2062,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -2072,7 +2075,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -2085,7 +2088,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -2098,7 +2101,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -2111,7 +2114,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -2137,7 +2140,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -2163,7 +2166,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -2176,7 +2179,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -2189,7 +2192,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -2202,7 +2205,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -2215,7 +2218,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -2228,7 +2231,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -2241,7 +2244,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -2254,7 +2257,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -2267,7 +2270,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -2280,7 +2283,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -2293,7 +2296,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -2306,7 +2309,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -2319,7 +2322,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -2332,7 +2335,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -2345,7 +2348,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="B44">
         <v>0.1</v>
@@ -2358,7 +2361,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -2397,7 +2400,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -2410,7 +2413,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -2423,7 +2426,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -2436,7 +2439,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -2449,7 +2452,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -2462,7 +2465,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -2475,7 +2478,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -2488,7 +2491,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -2501,7 +2504,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
@@ -2514,7 +2517,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
@@ -2527,7 +2530,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>383</v>
+        <v>378</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
@@ -2540,7 +2543,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
@@ -2553,7 +2556,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
@@ -2566,7 +2569,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
@@ -2579,7 +2582,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
@@ -2592,7 +2595,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
@@ -2605,7 +2608,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
@@ -2618,7 +2621,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
@@ -2631,7 +2634,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B67" s="6">
         <v>0.1</v>
@@ -2657,7 +2660,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B68" s="6">
         <v>0.1</v>
@@ -2670,7 +2673,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B69" s="6">
         <v>0.1</v>
@@ -2683,7 +2686,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B70" s="6">
         <v>0.1</v>
@@ -2696,7 +2699,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B71" s="6">
         <v>0.1</v>
@@ -2709,7 +2712,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B72" s="6">
         <v>0.1</v>
@@ -2722,7 +2725,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="B73" s="6">
         <v>0.1</v>
@@ -2735,7 +2738,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B74" s="6">
         <v>0.1</v>
@@ -2748,7 +2751,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B75" s="6">
         <v>0.1</v>
@@ -2761,7 +2764,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B76" s="6">
         <v>0.1</v>
@@ -2774,7 +2777,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B77" s="6">
         <v>0.1</v>
@@ -2787,7 +2790,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B78" s="6">
         <v>0.1</v>
@@ -2800,7 +2803,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="B79" s="6">
         <v>0.1</v>
@@ -2813,7 +2816,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B80" s="6">
         <v>0.1</v>
@@ -2826,7 +2829,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="B81" s="6">
         <v>0.1</v>
@@ -2839,7 +2842,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="B82" s="6">
         <v>0.1</v>
@@ -2852,7 +2855,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B83" s="5">
         <v>0.1</v>
@@ -2865,7 +2868,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B84" s="5">
         <v>0.1</v>
@@ -2878,7 +2881,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B85" s="5">
         <v>0.1</v>
@@ -2891,7 +2894,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B86" s="5">
         <v>0.1</v>
@@ -2904,7 +2907,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B87" s="5">
         <v>0.1</v>
@@ -2917,7 +2920,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="B88" s="5">
         <v>0.1</v>
@@ -2952,15 +2955,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -2972,7 +2975,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -2989,18 +2992,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B6" s="5">
         <v>8</v>
@@ -3012,7 +3015,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B7" s="6">
         <v>7</v>
@@ -3024,7 +3027,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -3036,7 +3039,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -3048,7 +3051,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
@@ -3060,7 +3063,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" s="5">
         <v>3</v>
@@ -3072,7 +3075,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
@@ -3084,7 +3087,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B13" s="5">
         <v>1</v>
@@ -3096,7 +3099,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
@@ -3108,7 +3111,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
@@ -3120,7 +3123,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -3132,7 +3135,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -3144,7 +3147,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -3156,7 +3159,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -3168,7 +3171,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -3180,7 +3183,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -3204,7 +3207,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -3216,7 +3219,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
@@ -3228,7 +3231,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
@@ -3262,15 +3265,15 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -3282,7 +3285,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -3299,18 +3302,18 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
@@ -3322,7 +3325,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5">
         <v>7</v>
@@ -3334,7 +3337,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -3346,7 +3349,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5">
         <v>5</v>
@@ -3358,7 +3361,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
@@ -3370,7 +3373,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
@@ -3382,7 +3385,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" s="6">
         <v>2</v>
@@ -3394,7 +3397,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -3406,7 +3409,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B14" s="5">
         <v>0.1</v>
@@ -3418,7 +3421,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B15" s="5">
         <v>0.1</v>
@@ -3430,7 +3433,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5">
         <v>0.1</v>
@@ -3442,7 +3445,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5">
         <v>0.1</v>
@@ -3454,7 +3457,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -3466,7 +3469,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -3478,7 +3481,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -3490,7 +3493,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B21" s="5">
         <v>0.1</v>
@@ -3502,7 +3505,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -3514,7 +3517,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -3526,7 +3529,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
@@ -3538,7 +3541,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
@@ -3572,15 +3575,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -3592,7 +3595,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -3609,18 +3612,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -3633,7 +3636,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6">
         <v>19</v>
@@ -3646,7 +3649,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8">
         <v>18</v>
@@ -3659,7 +3662,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -3672,7 +3675,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -3685,7 +3688,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11">
         <v>15</v>
@@ -3698,7 +3701,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -3711,7 +3714,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -3724,7 +3727,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -3737,7 +3740,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
@@ -3750,7 +3753,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
@@ -3763,7 +3766,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B17">
         <v>9</v>
@@ -3776,7 +3779,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -3789,7 +3792,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -3802,7 +3805,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B20">
         <v>6</v>
@@ -3815,7 +3818,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="11" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -3828,7 +3831,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -3841,7 +3844,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B23">
         <v>3</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -3867,7 +3870,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -3880,7 +3883,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B26">
         <v>0.1</v>
@@ -3893,7 +3896,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B27">
         <v>0.1</v>
@@ -3906,7 +3909,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B28">
         <v>0.1</v>
@@ -3919,7 +3922,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>0.1</v>
@@ -3932,7 +3935,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B30">
         <v>0.1</v>
@@ -3945,7 +3948,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B31">
         <v>0.1</v>
@@ -3958,7 +3961,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B32">
         <v>0.1</v>
@@ -3971,7 +3974,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -3984,7 +3987,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B34">
         <v>0.1</v>
@@ -3997,7 +4000,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>0.1</v>
@@ -4010,7 +4013,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B36">
         <v>0.1</v>
@@ -4023,7 +4026,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>0.1</v>
@@ -4036,7 +4039,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B38">
         <v>0.1</v>
@@ -4049,7 +4052,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>0.1</v>
@@ -4062,7 +4065,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B40">
         <v>0.1</v>
@@ -4075,7 +4078,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B41">
         <v>0.1</v>
@@ -4088,7 +4091,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B42">
         <v>0.1</v>
@@ -4101,7 +4104,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B43">
         <v>0.1</v>
@@ -4114,7 +4117,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B44">
         <v>0.1</v>
@@ -4127,7 +4130,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B45">
         <v>0.1</v>
@@ -4140,7 +4143,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B46">
         <v>0.1</v>
@@ -4153,7 +4156,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B47">
         <v>0.1</v>
@@ -4166,7 +4169,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B48">
         <v>0.1</v>
@@ -4179,7 +4182,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B49">
         <v>0.1</v>
@@ -4192,7 +4195,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B50">
         <v>0.1</v>
@@ -4205,7 +4208,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B51">
         <v>0.1</v>
@@ -4218,7 +4221,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B52">
         <v>0.1</v>
@@ -4231,7 +4234,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>0.1</v>
@@ -4244,7 +4247,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B54">
         <v>0.1</v>
@@ -4257,7 +4260,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B55">
         <v>0.1</v>
@@ -4270,7 +4273,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B56">
         <v>0.1</v>
@@ -4283,7 +4286,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B57">
         <v>0.1</v>
@@ -4296,7 +4299,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B58">
         <v>0.1</v>
@@ -4309,7 +4312,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B59">
         <v>0.1</v>
@@ -4322,7 +4325,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="11" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B60">
         <v>0.1</v>
@@ -4335,7 +4338,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B61">
         <v>0.1</v>
@@ -4348,7 +4351,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="11" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B62">
         <v>0.1</v>
@@ -4361,7 +4364,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="11" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B63">
         <v>0.1</v>
@@ -4374,7 +4377,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B64">
         <v>0.1</v>
@@ -4397,7 +4400,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4408,15 +4411,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -4428,7 +4431,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -4445,18 +4448,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -4469,7 +4472,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B7" s="6">
         <v>19</v>
@@ -4482,7 +4485,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -4495,7 +4498,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -4508,7 +4511,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -4521,7 +4524,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -4534,7 +4537,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -4547,7 +4550,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -4560,7 +4563,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -4573,7 +4576,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
@@ -4586,7 +4589,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
@@ -4599,7 +4602,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -4612,7 +4615,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -4625,7 +4628,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -4638,7 +4641,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -4651,7 +4654,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -4664,7 +4667,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -4677,7 +4680,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -4690,31 +4693,31 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -4727,7 +4730,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -4740,7 +4743,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -4753,7 +4756,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -4766,7 +4769,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -4779,7 +4782,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -4792,7 +4795,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -4805,7 +4808,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -4818,7 +4821,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -4831,7 +4834,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -4844,7 +4847,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -4857,7 +4860,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -4870,7 +4873,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -4883,7 +4886,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -4896,7 +4899,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -4909,7 +4912,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -4922,7 +4925,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -4935,7 +4938,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -4948,7 +4951,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
@@ -4961,7 +4964,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -4974,7 +4977,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -4987,7 +4990,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -5000,7 +5003,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -5013,7 +5016,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -5026,7 +5029,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -5039,7 +5042,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -5052,7 +5055,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -5065,7 +5068,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -5078,7 +5081,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -5091,7 +5094,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -5104,7 +5107,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
@@ -5117,7 +5120,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
@@ -5130,7 +5133,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
@@ -5143,7 +5146,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
@@ -5156,7 +5159,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
@@ -5169,7 +5172,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
@@ -5182,7 +5185,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
@@ -5195,7 +5198,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
@@ -5208,7 +5211,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
@@ -5221,7 +5224,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
@@ -5234,7 +5237,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
@@ -5258,7 +5261,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5269,27 +5272,27 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
       <c r="C2">
         <f>COUNTIF(C$6:C98, "common")</f>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <f>B2*B2</f>
@@ -5297,66 +5300,66 @@
       </c>
       <c r="C3">
         <f>COUNTIF(C$6:C98, "rare")</f>
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
+        <v>433</v>
       </c>
       <c r="B6" s="5">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1,"common","rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>9</v>
+        <v>431</v>
       </c>
       <c r="B7" s="5">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>4</v>
+        <v>430</v>
       </c>
       <c r="B8" s="5">
-        <v>6</v>
+        <v>0.1</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <v>rare</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" s="5">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <v>rare</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
@@ -5364,47 +5367,47 @@
         <v>6</v>
       </c>
       <c r="B10" s="5">
-        <v>4</v>
+        <v>0.1</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
+        <f>IF(B10&gt;=1,"common","rare")</f>
+        <v>rare</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5">
-        <v>3</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
+        <f>IF(B11&gt;=1,"common","rare")</f>
+        <v>rare</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>8</v>
+        <v>432</v>
       </c>
       <c r="B12" s="5">
-        <v>2</v>
+        <v>0.1</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
+        <f>IF(B12&gt;=1,"common","rare")</f>
+        <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>12</v>
+        <v>429</v>
       </c>
       <c r="B13" s="5">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="C13" s="10" t="str">
         <f>IF(B13&gt;=1,"common","rare")</f>
-        <v>common</v>
+        <v>rare</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -5444,8 +5447,8 @@
       <c r="B21" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A6:C18">
-    <sortCondition descending="1" ref="B18"/>
+  <sortState ref="A6:C17">
+    <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5453,10 +5456,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5467,34 +5470,34 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>10</v>
       </c>
       <c r="C2">
-        <f>COUNTIF(C$6:C105, "common")</f>
-        <v>10</v>
+        <f>COUNTIF(C$6:C100, "common")</f>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <f>B2*B2</f>
         <v>100</v>
       </c>
       <c r="C3">
-        <f>COUNTIF(C$6:C105, "rare")</f>
+        <f>COUNTIF(C$6:C100, "rare")</f>
         <v>2</v>
       </c>
     </row>
@@ -5503,24 +5506,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>434</v>
       </c>
       <c r="B6" s="5">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C17" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -5529,172 +5532,112 @@
         <v>13</v>
       </c>
       <c r="B7" s="5">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" ref="C7" si="1">IF(B7&gt;=1, "common", "rare")</f>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" s="5">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" ref="C9" si="2">IF(B9&gt;=1, "common", "rare")</f>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B11" s="5">
-        <v>5</v>
+        <v>0.1</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" ref="C11" si="3">IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <v>rare</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="5">
-        <v>4</v>
+        <v>12</v>
+      </c>
+      <c r="B12" s="12">
+        <v>0.1</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <v>rare</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="5">
-        <v>3</v>
-      </c>
-      <c r="C13" s="10" t="str">
-        <f t="shared" ref="C13:C15" si="4">IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="5">
-        <v>2</v>
-      </c>
-      <c r="C14" s="10" t="str">
-        <f t="shared" ref="C14" si="5">IF(B14&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="5">
-        <v>1</v>
-      </c>
-      <c r="C15" s="10" t="str">
-        <f t="shared" si="4"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="30" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.2">
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.2">
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-    </row>
-    <row r="38" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-    </row>
   </sheetData>
-  <sortState ref="A5:C10">
-    <sortCondition descending="1" ref="B5"/>
+  <sortState ref="A6:C12">
+    <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5716,15 +5659,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
@@ -5736,7 +5679,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -5753,18 +5696,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -5777,7 +5720,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -5790,7 +5733,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -5803,7 +5746,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
@@ -5816,7 +5759,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -5829,7 +5772,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
@@ -5842,7 +5785,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -5855,7 +5798,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -5868,7 +5811,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
@@ -5881,7 +5824,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -5894,7 +5837,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -5907,7 +5850,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -5920,7 +5863,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -5933,7 +5876,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -5946,7 +5889,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -5959,7 +5902,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -5972,7 +5915,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -5985,7 +5928,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -5998,7 +5941,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
@@ -6011,7 +5954,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
@@ -6024,7 +5967,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
@@ -6037,7 +5980,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B27" s="5">
         <v>0.1</v>
@@ -6050,7 +5993,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B28" s="5">
         <v>0.1</v>
@@ -6063,7 +6006,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -6076,7 +6019,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -6089,7 +6032,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -6102,7 +6045,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -6115,7 +6058,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -6128,7 +6071,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -6141,7 +6084,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -6154,7 +6097,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -6167,7 +6110,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -6180,7 +6123,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -6193,7 +6136,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -6206,7 +6149,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -6476,15 +6419,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -6496,7 +6439,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -6513,18 +6456,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
@@ -6537,7 +6480,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6">
         <v>19</v>
@@ -6550,7 +6493,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -6563,7 +6506,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -6576,7 +6519,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -6589,7 +6532,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -6602,7 +6545,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -6615,7 +6558,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -6628,7 +6571,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -6641,7 +6584,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
@@ -6654,7 +6597,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
@@ -6667,7 +6610,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -6680,7 +6623,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -6693,7 +6636,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -6706,7 +6649,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -6719,7 +6662,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -6732,7 +6675,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -6745,7 +6688,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -6758,7 +6701,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -6771,7 +6714,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -6784,7 +6727,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -6797,7 +6740,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -6810,7 +6753,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -6823,7 +6766,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -6836,7 +6779,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -6849,7 +6792,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -6862,7 +6805,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -6875,7 +6818,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -6888,7 +6831,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -6901,7 +6844,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -6914,7 +6857,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -6927,7 +6870,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -6940,7 +6883,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -6953,7 +6896,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -6966,7 +6909,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -6979,7 +6922,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -6992,7 +6935,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -7005,7 +6948,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -7018,7 +6961,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
@@ -7031,7 +6974,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -7044,7 +6987,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -7057,7 +7000,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
@@ -7070,7 +7013,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -7083,7 +7026,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -7096,7 +7039,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -7109,7 +7052,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -7122,7 +7065,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -7135,7 +7078,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -7148,7 +7091,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -7161,7 +7104,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -7174,7 +7117,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
@@ -7187,7 +7130,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
@@ -7200,7 +7143,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
@@ -7213,7 +7156,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
@@ -7226,7 +7169,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
@@ -7239,7 +7182,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
@@ -7252,7 +7195,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
@@ -7265,7 +7208,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
@@ -7278,7 +7221,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
@@ -7291,7 +7234,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
@@ -7304,7 +7247,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
@@ -7317,7 +7260,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B67" s="6">
         <v>0.1</v>
@@ -7330,7 +7273,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B68" s="6">
         <v>0.1</v>
@@ -7343,7 +7286,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B69" s="6">
         <v>0.1</v>
@@ -7356,7 +7299,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="B70" s="6">
         <v>0.1</v>
@@ -7369,7 +7312,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B71" s="6">
         <v>0.1</v>
@@ -7382,7 +7325,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="B72" s="6">
         <v>0.1</v>
@@ -7395,7 +7338,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B73" s="6">
         <v>0.1</v>
@@ -7408,7 +7351,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B74" s="6">
         <v>0.1</v>
@@ -7421,7 +7364,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B75" s="6">
         <v>0.1</v>
@@ -7434,7 +7377,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="B76" s="6">
         <v>0.1</v>
@@ -7447,7 +7390,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B77" s="6">
         <v>0.1</v>
@@ -7460,7 +7403,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B78" s="6">
         <v>0.1</v>
@@ -7473,7 +7416,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B79" s="6">
         <v>0.1</v>
@@ -7486,7 +7429,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B80" s="6">
         <v>0.1</v>
@@ -7499,7 +7442,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B81" s="6">
         <v>0.1</v>
@@ -7512,7 +7455,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B82" s="6">
         <v>0.1</v>
@@ -7525,7 +7468,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B83" s="6">
         <v>0.1</v>
@@ -7538,7 +7481,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B84" s="6">
         <v>0.1</v>
@@ -7551,7 +7494,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B85" s="6">
         <v>0.1</v>
@@ -7563,7 +7506,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B86" s="6">
         <v>0.1</v>
@@ -7575,7 +7518,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B87" s="6">
         <v>0.1</v>
@@ -7587,7 +7530,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B88" s="6">
         <v>0.1</v>
@@ -7599,7 +7542,7 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B89" s="6">
         <v>0.1</v>
@@ -7633,15 +7576,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -7653,7 +7596,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -7670,18 +7613,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
@@ -7694,7 +7637,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B7" s="6">
         <v>8</v>
@@ -7707,7 +7650,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -7720,7 +7663,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
@@ -7733,7 +7676,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B10" s="6">
         <v>4</v>
@@ -7746,7 +7689,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
@@ -7759,7 +7702,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B12" s="6">
         <v>2</v>
@@ -7772,7 +7715,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -7785,7 +7728,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -7798,7 +7741,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B15" s="6">
         <v>0.1</v>
@@ -7811,7 +7754,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B16" s="6">
         <v>0.1</v>
@@ -7824,7 +7767,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B17" s="6">
         <v>0.1</v>
@@ -7837,7 +7780,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -7850,7 +7793,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -7863,7 +7806,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B20">
         <v>0.1</v>
@@ -7876,7 +7819,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -8096,15 +8039,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
@@ -8116,7 +8059,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -8133,18 +8076,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -8157,7 +8100,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -8170,7 +8113,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -8183,7 +8126,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
@@ -8196,7 +8139,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -8209,7 +8152,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
@@ -8222,7 +8165,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -8235,7 +8178,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -8248,7 +8191,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -8261,7 +8204,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -8274,7 +8217,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -8287,7 +8230,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -8300,7 +8243,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -8313,7 +8256,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -8326,7 +8269,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -8339,7 +8282,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -8352,7 +8295,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -8365,7 +8308,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
@@ -8378,7 +8321,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
@@ -8391,7 +8334,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
@@ -8404,43 +8347,43 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D27" s="9"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D28" s="9"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
@@ -8448,7 +8391,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
@@ -8456,7 +8399,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
@@ -8464,7 +8407,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
@@ -8472,7 +8415,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
@@ -8480,7 +8423,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
@@ -8488,7 +8431,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="10"/>
@@ -8496,7 +8439,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="10"/>
@@ -8504,7 +8447,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="10"/>
@@ -8512,7 +8455,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
@@ -8520,7 +8463,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
@@ -8528,7 +8471,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
@@ -8536,7 +8479,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="10"/>
@@ -8544,7 +8487,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
@@ -8552,7 +8495,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="10"/>
@@ -8560,7 +8503,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="10"/>
@@ -8568,7 +8511,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
@@ -8576,7 +8519,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="10"/>
@@ -8611,15 +8554,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>20</v>
@@ -8631,7 +8574,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -8648,18 +8591,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -8672,7 +8615,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -8685,7 +8628,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -8698,7 +8641,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -8711,7 +8654,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -8724,7 +8667,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -8737,7 +8680,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -8750,7 +8693,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -8763,7 +8706,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -8776,7 +8719,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -8789,7 +8732,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -8802,7 +8745,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -8815,7 +8758,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -8828,7 +8771,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -8841,7 +8784,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -8854,7 +8797,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -8867,7 +8810,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -8880,7 +8823,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -8893,7 +8836,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -8906,7 +8849,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -8919,7 +8862,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -8932,7 +8875,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -8945,7 +8888,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -8958,7 +8901,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -8971,7 +8914,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -8984,7 +8927,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -8997,7 +8940,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -9010,7 +8953,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -9023,7 +8966,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -9036,7 +8979,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -9049,7 +8992,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -9062,7 +9005,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -9075,7 +9018,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -9088,7 +9031,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -9101,7 +9044,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -9114,7 +9057,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -9127,7 +9070,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -9140,7 +9083,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -9153,7 +9096,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
@@ -9166,7 +9109,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -9179,7 +9122,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -9192,7 +9135,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B47">
         <v>0.1</v>
@@ -9205,7 +9148,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>
@@ -9213,7 +9156,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
@@ -9221,7 +9164,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
@@ -9229,21 +9172,21 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
@@ -9272,15 +9215,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>8</v>
@@ -9292,7 +9235,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -9309,18 +9252,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
@@ -9333,7 +9276,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B7" s="6">
         <v>7</v>
@@ -9346,7 +9289,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -9359,7 +9302,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
@@ -9372,7 +9315,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B10" s="6">
         <v>4</v>
@@ -9385,7 +9328,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
@@ -9398,7 +9341,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B12" s="6">
         <v>2</v>
@@ -9411,7 +9354,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -9424,7 +9367,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -9437,7 +9380,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B15" s="6">
         <v>0.1</v>
@@ -9450,7 +9393,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B16" s="6">
         <v>0.1</v>
@@ -9463,7 +9406,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B17" s="6">
         <v>0.1</v>
@@ -9476,7 +9419,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -9489,7 +9432,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -9656,15 +9599,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
@@ -9676,7 +9619,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -9693,18 +9636,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -9717,7 +9660,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
@@ -9730,7 +9673,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -9743,7 +9686,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
@@ -9756,7 +9699,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -9769,7 +9712,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
@@ -9782,7 +9725,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -9795,7 +9738,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -9808,7 +9751,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
@@ -9821,7 +9764,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -9834,7 +9777,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -9847,7 +9790,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -9860,7 +9803,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -9873,7 +9816,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -9886,7 +9829,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -9899,7 +9842,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -9912,7 +9855,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -9925,7 +9868,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
@@ -9938,7 +9881,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
@@ -9951,7 +9894,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
@@ -9964,7 +9907,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -9977,7 +9920,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -9990,7 +9933,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -10003,7 +9946,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -10016,7 +9959,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -10029,7 +9972,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -10042,7 +9985,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -10055,7 +9998,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -10068,7 +10011,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -10081,7 +10024,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -10094,7 +10037,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -10129,15 +10072,15 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6">
         <v>12</v>
@@ -10149,7 +10092,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B3" s="6">
         <f>B2*B2</f>
@@ -10166,18 +10109,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -10190,7 +10133,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="B7" s="5">
         <v>11</v>
@@ -10203,7 +10146,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B8" s="5">
         <v>10</v>
@@ -10216,7 +10159,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5">
         <v>9</v>
@@ -10229,7 +10172,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
@@ -10242,7 +10185,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B11" s="5">
         <v>7</v>
@@ -10255,7 +10198,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -10268,7 +10211,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
@@ -10281,7 +10224,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -10294,7 +10237,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
@@ -10307,7 +10250,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -10320,7 +10263,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -10333,7 +10276,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -10346,7 +10289,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -10359,7 +10302,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -10372,7 +10315,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -10385,7 +10328,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -10398,7 +10341,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -10411,7 +10354,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
@@ -10424,7 +10367,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
@@ -10437,7 +10380,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>

--- a/scripts/Dragonborn.xlsx
+++ b/scripts/Dragonborn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -5260,8 +5260,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5458,7 +5458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/scripts/Dragonborn.xlsx
+++ b/scripts/Dragonborn.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="436">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -1346,6 +1346,9 @@
   </si>
   <si>
     <t>vixen</t>
+  </si>
+  <si>
+    <t>Percent</t>
   </si>
 </sst>
 </file>
@@ -1355,7 +1358,14 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1449,56 +1459,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="19" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1508,6 +1524,8 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1517,7 +1535,10 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1794,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1811,6 +1832,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -1823,6 +1847,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -1834,7 +1862,11 @@
       </c>
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>63</v>
+        <v>41</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>0.10249999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1860,7 +1892,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="11"/>
@@ -1873,7 +1905,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="11"/>
@@ -1886,7 +1918,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="11"/>
@@ -1899,7 +1931,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="11"/>
@@ -1912,7 +1944,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="11"/>
@@ -1925,7 +1957,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="11"/>
@@ -1938,7 +1970,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="11"/>
@@ -1951,7 +1983,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="11"/>
@@ -1964,7 +1996,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="11"/>
@@ -1977,7 +2009,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="11"/>
@@ -1990,7 +2022,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="11"/>
@@ -2003,7 +2035,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="11"/>
@@ -2016,7 +2048,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D18" s="11"/>
@@ -2029,7 +2061,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D19" s="11"/>
@@ -2042,7 +2074,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D20" s="11"/>
@@ -2055,7 +2087,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D21" s="11"/>
@@ -2068,7 +2100,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D22" s="11"/>
@@ -2081,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D23" s="11"/>
@@ -2094,7 +2126,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D24" s="11"/>
@@ -2107,7 +2139,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D25" s="11"/>
@@ -2120,7 +2152,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="11"/>
@@ -2133,7 +2165,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="11"/>
@@ -2146,7 +2178,7 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="11"/>
@@ -2159,7 +2191,7 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="11"/>
@@ -2172,7 +2204,7 @@
         <v>0.1</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="11"/>
@@ -2185,7 +2217,7 @@
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="11"/>
@@ -2198,737 +2230,627 @@
         <v>0.1</v>
       </c>
       <c r="C32" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
       </c>
       <c r="C33" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
       </c>
       <c r="C34" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
       </c>
       <c r="C35" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
       </c>
       <c r="C36" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
       </c>
       <c r="C37" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>420</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" ref="C38:C69" si="1">IF(B38&gt;=1, "common", "rare")</f>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>423</v>
-      </c>
-      <c r="B42" s="6">
+        <v>425</v>
+      </c>
+      <c r="B42">
         <v>0.1</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>424</v>
+        <v>281</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>425</v>
-      </c>
-      <c r="B44">
+        <v>368</v>
+      </c>
+      <c r="B44" s="6">
         <v>0.1</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>281</v>
+        <v>369</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
       </c>
       <c r="C45" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
-        <v>363</v>
+      <c r="A46" t="s">
+        <v>370</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
       </c>
       <c r="C46" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B49&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
       </c>
       <c r="C50" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B50&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B51&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>372</v>
+        <v>149</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
       </c>
       <c r="C52" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B52&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B53&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D53" s="11"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>374</v>
+        <v>24</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
       </c>
       <c r="C54" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B54&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
       </c>
       <c r="C55" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B55&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
       </c>
       <c r="C56" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B56&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
       </c>
       <c r="C57" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B57&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
       </c>
       <c r="C58" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B58&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
       </c>
       <c r="C59" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B59&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
       </c>
       <c r="C60" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B60&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>24</v>
+        <v>401</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
       </c>
       <c r="C61" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B61&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
       </c>
       <c r="C62" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B62&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>381</v>
+        <v>417</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
       </c>
       <c r="C63" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B63&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>382</v>
-      </c>
-      <c r="B64" s="6">
+        <v>418</v>
+      </c>
+      <c r="B64" s="5">
         <v>0.1</v>
       </c>
       <c r="C64" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B64&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>383</v>
-      </c>
-      <c r="B65" s="6">
+        <v>160</v>
+      </c>
+      <c r="B65" s="5">
         <v>0.1</v>
       </c>
       <c r="C65" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B65&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>384</v>
-      </c>
-      <c r="B66" s="6">
+        <v>422</v>
+      </c>
+      <c r="B66" s="5">
         <v>0.1</v>
       </c>
       <c r="C66" s="10" t="str">
-        <f t="shared" si="1"/>
+        <f>IF(B66&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>385</v>
-      </c>
-      <c r="B67" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="11"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>386</v>
-      </c>
-      <c r="B68" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C68" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="11"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>387</v>
-      </c>
-      <c r="B69" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>rare</v>
-      </c>
+      <c r="A69" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="11"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>139</v>
-      </c>
-      <c r="B70" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="10" t="str">
-        <f t="shared" ref="C70:C88" si="2">IF(B70&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="11"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>388</v>
-      </c>
-      <c r="B71" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="11"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>389</v>
-      </c>
-      <c r="B72" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="11"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>390</v>
-      </c>
-      <c r="B73" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="11"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>391</v>
-      </c>
-      <c r="B74" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="11"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>396</v>
-      </c>
-      <c r="B75" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="10"/>
       <c r="D75" s="11"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>398</v>
-      </c>
-      <c r="B76" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="11"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>401</v>
-      </c>
-      <c r="B77" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="11"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>403</v>
-      </c>
-      <c r="B78" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="11"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>404</v>
-      </c>
-      <c r="B79" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="11"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>119</v>
-      </c>
-      <c r="B80" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>390</v>
+      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="11"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>405</v>
-      </c>
-      <c r="B81" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C81" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="11"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>417</v>
-      </c>
-      <c r="B82" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C82" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="10"/>
       <c r="D82" s="8"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>418</v>
-      </c>
-      <c r="B83" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C83" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>404</v>
+      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="8"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>217</v>
-      </c>
-      <c r="B84" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C84" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="10"/>
       <c r="D84" s="8"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>160</v>
-      </c>
-      <c r="B85" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="10"/>
       <c r="D85" s="8"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>422</v>
-      </c>
-      <c r="B86" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C86" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+        <v>217</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="10"/>
       <c r="D86" s="8"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>426</v>
       </c>
-      <c r="B87" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C87" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B87" s="5"/>
+      <c r="C87" s="10"/>
       <c r="D87" s="8"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>427</v>
       </c>
-      <c r="B88" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C88" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
+      <c r="B88" s="5"/>
+      <c r="C88" s="10"/>
       <c r="D88" s="8"/>
     </row>
   </sheetData>
@@ -2941,630 +2863,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6">
-        <f>COUNTIF(C$6:C102, "common")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6">
-        <f>B2*B2</f>
-        <v>64</v>
-      </c>
-      <c r="C3" s="6">
-        <f>COUNTIF(C$6:C102, "rare")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="5">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C25" si="0">IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="6">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="5">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10" t="str">
-        <f t="shared" ref="C11:C13" si="1">IF(B11&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" s="5">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A6:C22">
-    <sortCondition descending="1" ref="B6"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6">
-        <f>COUNTIF(C$6:C101, "common")</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6">
-        <f>B2*B2</f>
-        <v>64</v>
-      </c>
-      <c r="C3" s="6">
-        <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="6">
-        <v>8</v>
-      </c>
-      <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C11" si="0">IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="5">
-        <v>7</v>
-      </c>
-      <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="6">
-        <v>6</v>
-      </c>
-      <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="5">
-        <v>4</v>
-      </c>
-      <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="6">
-        <v>3</v>
-      </c>
-      <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="6">
-        <v>2</v>
-      </c>
-      <c r="C12" s="10" t="str">
-        <f t="shared" ref="C12:C13" si="1">IF(B12&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" s="6">
-        <v>1</v>
-      </c>
-      <c r="C13" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C15" s="10" t="str">
-        <f t="shared" ref="C15:C25" si="2">IF(B15&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C16" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C17" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B18" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C18" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C19" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C22" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C23" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C24" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="5">
-        <v>0.1</v>
-      </c>
-      <c r="C25" s="10" t="str">
-        <f t="shared" si="2"/>
-        <v>rare</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A6:C23">
-    <sortCondition descending="1" ref="B6"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3580,18 +2882,607 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B2" s="6">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <f>COUNTIF(C$6:C102, "common")</f>
+        <v>8</v>
+      </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B2*B2</f>
+        <v>64</v>
+      </c>
+      <c r="C3" s="6">
+        <f>COUNTIF(C$6:C102, "rare")</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="6">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="5">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:C25">
+    <sortCondition descending="1" ref="B20"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D25"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6">
+        <v>8</v>
+      </c>
+      <c r="C2" s="6">
+        <f>COUNTIF(C$6:C101, "common")</f>
+        <v>8</v>
+      </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B2*B2</f>
+        <v>64</v>
+      </c>
+      <c r="C3" s="6">
+        <f>COUNTIF(C$6:C101, "rare")</f>
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="6">
+        <v>6</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="5">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5">
+        <v>4</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="6">
+        <v>3</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="6">
+        <v>2</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="6">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="10"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="10"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="10"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="5"/>
+      <c r="C23" s="10"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="10"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="10"/>
+    </row>
+  </sheetData>
+  <sortState ref="A6:C25">
+    <sortCondition descending="1" ref="B25"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6">
         <v>20</v>
       </c>
       <c r="C2" s="6">
         <f>COUNTIF(C$6:C109, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -3604,6 +3495,10 @@
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C109, "rare")</f>
         <v>39</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>9.7500000000000003E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -4400,7 +4295,7 @@
   <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4416,6 +4311,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -4428,6 +4326,10 @@
         <f>COUNTIF(C$6:C103, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -4440,6 +4342,10 @@
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C103, "rare")</f>
         <v>41</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>0.10249999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5258,10 +5164,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5270,15 +5176,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -5289,8 +5198,12 @@
         <f>COUNTIF(C$6:C98, "common")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5302,8 +5215,12 @@
         <f>COUNTIF(C$6:C98, "rare")</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>9.375E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5314,7 +5231,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>433</v>
       </c>
@@ -5326,7 +5243,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>431</v>
       </c>
@@ -5338,7 +5255,7 @@
         <v>common</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>430</v>
       </c>
@@ -5350,7 +5267,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>4</v>
       </c>
@@ -5362,7 +5279,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>6</v>
       </c>
@@ -5374,7 +5291,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5386,7 +5303,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>432</v>
       </c>
@@ -5398,7 +5315,7 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>429</v>
       </c>
@@ -5410,21 +5327,21 @@
         <v>rare</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="10"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="10"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
@@ -5459,7 +5376,7 @@
   <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5468,15 +5385,18 @@
     <col min="2" max="2" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="7" t="s">
         <v>18</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
@@ -5487,8 +5407,12 @@
         <f>COUNTIF(C$6:C100, "common")</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
@@ -5500,11 +5424,15 @@
         <f>COUNTIF(C$6:C100, "rare")</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -5515,7 +5443,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>434</v>
       </c>
@@ -5523,11 +5451,11 @@
         <v>5</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" ref="C6:C12" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
@@ -5535,11 +5463,11 @@
         <v>4</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -5547,11 +5475,11 @@
         <v>3</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -5559,11 +5487,11 @@
         <v>2</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -5571,11 +5499,11 @@
         <v>1</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -5583,11 +5511,11 @@
         <v>0.1</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -5595,19 +5523,19 @@
         <v>0.1</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
     </row>
@@ -5648,7 +5576,7 @@
   <dimension ref="A1:D80"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5664,6 +5592,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -5676,6 +5607,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -5687,7 +5622,11 @@
       </c>
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C101, "rare")</f>
-        <v>23</v>
+        <v>15</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>0.10416666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -5713,7 +5652,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C40" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -5726,7 +5665,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -5739,7 +5678,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -5752,7 +5691,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -5765,7 +5704,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -5778,7 +5717,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -5791,7 +5730,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -5804,7 +5743,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -5817,7 +5756,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -5830,7 +5769,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -5843,7 +5782,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="8"/>
@@ -5856,7 +5795,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="8"/>
@@ -5869,295 +5808,255 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>357</v>
+        <v>332</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>332</v>
+        <v>160</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="B22" s="6">
+        <v>175</v>
+      </c>
+      <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>175</v>
+        <v>340</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B26" s="5">
+        <v>347</v>
+      </c>
+      <c r="B26" s="6">
         <v>0.1</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B27" s="5">
+        <v>348</v>
+      </c>
+      <c r="B27" s="6">
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B28" s="5">
+        <v>352</v>
+      </c>
+      <c r="B28" s="6">
         <v>0.1</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
       </c>
       <c r="C32" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="8"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B34" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="B34" s="5"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="8"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="B35" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B35" s="5"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="8"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="B36" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="8"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="B37" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>350</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="10"/>
       <c r="D37" s="8"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="B38" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="10"/>
       <c r="D38" s="8"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>361</v>
-      </c>
-      <c r="B39" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="10"/>
       <c r="D39" s="8"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="B40" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>356</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="8"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -6408,7 +6307,7 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6424,6 +6323,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -6436,6 +6338,10 @@
         <f>COUNTIF(C$6:C110, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -6447,7 +6353,11 @@
       </c>
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C110, "rare")</f>
-        <v>64</v>
+        <v>41</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>0.10249999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -6473,7 +6383,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C46" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -6486,7 +6396,7 @@
         <v>19</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" ref="C7" si="1">IF(B7&gt;=1, "common", "rare")</f>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
@@ -6499,7 +6409,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
@@ -6512,7 +6422,7 @@
         <v>17</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" ref="C9" si="2">IF(B9&gt;=1, "common", "rare")</f>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
@@ -6525,7 +6435,7 @@
         <v>16</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
@@ -6538,7 +6448,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" ref="C11" si="3">IF(B11&gt;=1, "common", "rare")</f>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
@@ -6551,7 +6461,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
@@ -6564,7 +6474,7 @@
         <v>13</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" ref="C13" si="4">IF(B13&gt;=1, "common", "rare")</f>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
@@ -6577,7 +6487,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
@@ -6590,7 +6500,7 @@
         <v>11</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" ref="C15" si="5">IF(B15&gt;=1, "common", "rare")</f>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
@@ -6603,7 +6513,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
@@ -6616,7 +6526,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" ref="C17" si="6">IF(B17&gt;=1, "common", "rare")</f>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
@@ -6629,7 +6539,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D18" s="2"/>
@@ -6642,7 +6552,7 @@
         <v>7</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" ref="C19" si="7">IF(B19&gt;=1, "common", "rare")</f>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D19" s="2"/>
@@ -6655,7 +6565,7 @@
         <v>6</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D20" s="2"/>
@@ -6668,7 +6578,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" ref="C21" si="8">IF(B21&gt;=1, "common", "rare")</f>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D21" s="2"/>
@@ -6681,7 +6591,7 @@
         <v>4</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D22" s="2"/>
@@ -6694,7 +6604,7 @@
         <v>3</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" ref="C23" si="9">IF(B23&gt;=1, "common", "rare")</f>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D23" s="2"/>
@@ -6707,7 +6617,7 @@
         <v>2</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D24" s="2"/>
@@ -6720,7 +6630,7 @@
         <v>1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D25" s="2"/>
@@ -6733,7 +6643,7 @@
         <v>0.1</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
@@ -6746,7 +6656,7 @@
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
@@ -6759,801 +6669,686 @@
         <v>0.1</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>289</v>
+        <v>88</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>295</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
       </c>
       <c r="C32" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B32&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>273</v>
+        <v>296</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
       </c>
       <c r="C33" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B33&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>292</v>
+        <v>59</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
       </c>
       <c r="C34" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B34&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>293</v>
+        <v>62</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
       </c>
       <c r="C35" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B35&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
       </c>
       <c r="C36" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B36&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
       </c>
       <c r="C37" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B37&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>59</v>
+        <v>302</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B39&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>62</v>
+        <v>303</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B40&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B41&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B42&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B43&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>300</v>
+        <v>308</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B44&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>301</v>
+        <v>309</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
       </c>
       <c r="C45" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B45&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>302</v>
+        <v>310</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
       </c>
       <c r="C46" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B46&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f t="shared" ref="C47:C78" si="10">IF(B47&gt;=1, "common", "rare")</f>
+        <f>IF(B47&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B48&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B49&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
       </c>
       <c r="C50" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B50&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>307</v>
+        <v>65</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B51&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>308</v>
+        <v>316</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
       </c>
       <c r="C52" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B52&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B53&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
       </c>
       <c r="C54" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B54&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
       </c>
       <c r="C55" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B55&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
       </c>
       <c r="C56" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B56&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
       </c>
       <c r="C57" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B57&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
       </c>
       <c r="C58" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B58&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>315</v>
+        <v>323</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
       </c>
       <c r="C59" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B59&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
       </c>
       <c r="C60" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B60&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
       </c>
       <c r="C61" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B61&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
       </c>
       <c r="C62" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B62&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
       </c>
       <c r="C63" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B63&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>318</v>
+        <v>331</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
       </c>
       <c r="C64" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B64&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>319</v>
+        <v>327</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
       </c>
       <c r="C65" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B65&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
       </c>
       <c r="C66" s="10" t="str">
-        <f t="shared" si="10"/>
+        <f>IF(B66&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B67" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C67" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B67" s="6"/>
+      <c r="C67" s="10"/>
       <c r="D67" s="2"/>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B68" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C68" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="10"/>
       <c r="D68" s="2"/>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B69" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C69" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="B69" s="6"/>
+      <c r="C69" s="10"/>
       <c r="D69" s="2"/>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B70" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C70" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>273</v>
+      </c>
+      <c r="B70" s="6"/>
+      <c r="C70" s="10"/>
       <c r="D70" s="2"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B71" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C71" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="B71" s="6"/>
+      <c r="C71" s="10"/>
       <c r="D71" s="2"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B72" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C72" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B72" s="6"/>
+      <c r="C72" s="10"/>
       <c r="D72" s="2"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B73" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C73" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>299</v>
+      </c>
+      <c r="B73" s="6"/>
+      <c r="C73" s="10"/>
       <c r="D73" s="2"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B74" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C74" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="B74" s="6"/>
+      <c r="C74" s="10"/>
       <c r="D74" s="2"/>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B75" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C75" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="B75" s="6"/>
+      <c r="C75" s="10"/>
       <c r="D75" s="2"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B76" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C76" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>320</v>
+      </c>
+      <c r="B76" s="6"/>
+      <c r="C76" s="10"/>
       <c r="D76" s="2"/>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B77" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C77" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="B77" s="6"/>
+      <c r="C77" s="10"/>
       <c r="D77" s="2"/>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="B78" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C78" s="10" t="str">
-        <f t="shared" si="10"/>
-        <v>rare</v>
-      </c>
+      <c r="B78" s="6"/>
+      <c r="C78" s="10"/>
       <c r="D78" s="2"/>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="B79" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C79" s="10" t="str">
-        <f t="shared" ref="C79:C89" si="11">IF(B79&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
+      <c r="B79" s="6"/>
+      <c r="C79" s="10"/>
       <c r="D79" s="2"/>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B80" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C80" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B80" s="6"/>
+      <c r="C80" s="10"/>
       <c r="D80" s="2"/>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B81" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C81" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B81" s="6"/>
+      <c r="C81" s="10"/>
       <c r="D81" s="2"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B82" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C82" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B82" s="6"/>
+      <c r="C82" s="10"/>
       <c r="D82" s="2"/>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B83" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C83" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B83" s="6"/>
+      <c r="C83" s="10"/>
       <c r="D83" s="2"/>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B84" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C84" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B84" s="6"/>
+      <c r="C84" s="10"/>
       <c r="D84" s="2"/>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B85" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C85" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B85" s="6"/>
+      <c r="C85" s="10"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B86" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C86" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B86" s="6"/>
+      <c r="C86" s="10"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B87" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C87" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B87" s="6"/>
+      <c r="C87" s="10"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B88" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C88" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B88" s="6"/>
+      <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B89" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C89" s="10" t="str">
-        <f t="shared" si="11"/>
-        <v>rare</v>
-      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="10"/>
     </row>
   </sheetData>
-  <sortState ref="A6:C79">
+  <sortState ref="A6:C89">
     <sortCondition descending="1" ref="B6"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7565,7 +7360,7 @@
   <dimension ref="A1:D52"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7581,6 +7376,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -7593,6 +7391,10 @@
         <f>COUNTIF(C$6:C104, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -7604,7 +7406,11 @@
       </c>
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C104, "rare")</f>
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -7630,7 +7436,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C21" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="11"/>
@@ -7643,7 +7449,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" ref="C7" si="1">IF(B7&gt;=1, "common", "rare")</f>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="11"/>
@@ -7656,7 +7462,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="9"/>
@@ -7669,7 +7475,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" ref="C9" si="2">IF(B9&gt;=1, "common", "rare")</f>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="9"/>
@@ -7682,7 +7488,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="9"/>
@@ -7695,7 +7501,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" ref="C11:C13" si="3">IF(B11&gt;=1, "common", "rare")</f>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="9"/>
@@ -7708,7 +7514,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="9"/>
@@ -7721,7 +7527,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="9"/>
@@ -7734,100 +7540,90 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B15" s="6">
         <v>0.1</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B16" s="6">
         <v>0.1</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="B17" s="6">
         <v>0.1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="B18" s="6">
+        <v>280</v>
+      </c>
+      <c r="B18">
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>21</v>
+        <v>135</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="B20">
-        <v>0.1</v>
-      </c>
-      <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="10"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>277</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="10"/>
       <c r="D21" s="9"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -8016,8 +7812,8 @@
       <c r="D52" s="9"/>
     </row>
   </sheetData>
-  <sortState ref="A6:C16">
-    <sortCondition descending="1" ref="B6"/>
+  <sortState ref="A6:C21">
+    <sortCondition descending="1" ref="B21"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8028,7 +7824,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8044,6 +7840,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8056,6 +7855,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8068,6 +7871,10 @@
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C99, "rare")</f>
         <v>11</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>7.6388888888888895E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -8543,7 +8350,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8559,6 +8366,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -8571,6 +8381,10 @@
         <f>COUNTIF(C$6:C105, "common")</f>
         <v>20</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -8583,6 +8397,10 @@
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C105, "rare")</f>
         <v>22</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>5.5E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9204,7 +9022,7 @@
   <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9220,6 +9038,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9232,6 +9053,10 @@
         <f>COUNTIF(C$6:C104, "common")</f>
         <v>8</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9244,6 +9069,10 @@
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C104, "rare")</f>
         <v>6</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>9.375E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9588,7 +9417,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9604,6 +9433,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -9616,6 +9448,10 @@
         <f>COUNTIF(C$6:C99, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -9627,7 +9463,11 @@
       </c>
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C99, "rare")</f>
-        <v>19</v>
+        <v>14</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>9.7222222222222224E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -9653,7 +9493,7 @@
         <v>12</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C36" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <f>IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
@@ -9666,7 +9506,7 @@
         <v>11</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B7&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
@@ -9679,7 +9519,7 @@
         <v>10</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B8&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
@@ -9692,7 +9532,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B9&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
@@ -9705,7 +9545,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B10&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
@@ -9718,7 +9558,7 @@
         <v>7</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B11&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -9731,7 +9571,7 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B12&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
@@ -9744,7 +9584,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B13&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
@@ -9757,7 +9597,7 @@
         <v>4</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B14&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
@@ -9770,7 +9610,7 @@
         <v>3</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B15&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
@@ -9783,7 +9623,7 @@
         <v>2</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B16&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D16" s="8"/>
@@ -9796,261 +9636,236 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B17&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B18&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B19&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B20&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B21&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B22&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B23&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B24&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B25&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B26&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B27&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B28&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B29&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B30&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(B31&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B32" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="10"/>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="10"/>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B34" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="10"/>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B35" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="10"/>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="B36" s="6">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="10"/>
       <c r="D36" s="2"/>
     </row>
   </sheetData>
   <sortState ref="A6:C36">
-    <sortCondition descending="1" ref="B6"/>
+    <sortCondition descending="1" ref="B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10061,7 +9876,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="D1" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10077,6 +9892,9 @@
       <c r="C1" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="D1" s="7" t="s">
+        <v>435</v>
+      </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
@@ -10089,6 +9907,10 @@
         <f>COUNTIF(C$6:C101, "common")</f>
         <v>12</v>
       </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
@@ -10101,6 +9923,10 @@
       <c r="C3" s="6">
         <f>COUNTIF(C$6:C101, "rare")</f>
         <v>9</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>6.25E-2</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">

--- a/scripts/Dragonborn.xlsx
+++ b/scripts/Dragonborn.xlsx
@@ -1816,7 +1816,7 @@
   <dimension ref="A1:D88"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="D3" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/scripts/Dragonborn.xlsx
+++ b/scripts/Dragonborn.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="29005"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19080" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="15" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="face-shape" sheetId="8" r:id="rId8"/>
     <sheet name="face-nose" sheetId="7" r:id="rId9"/>
     <sheet name="face-mouth" sheetId="3" r:id="rId10"/>
-    <sheet name="hair-facial" sheetId="4" r:id="rId11"/>
-    <sheet name="hair-color" sheetId="5" r:id="rId12"/>
+    <sheet name="hair-color" sheetId="16" r:id="rId11"/>
+    <sheet name="hair-facial" sheetId="4" r:id="rId12"/>
     <sheet name="hair-general" sheetId="6" r:id="rId13"/>
     <sheet name="sex-male" sheetId="1" r:id="rId14"/>
     <sheet name="sex-female" sheetId="2" r:id="rId15"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="409">
   <si>
     <t>extremely hairy</t>
   </si>
@@ -214,123 +214,45 @@
     <t>black</t>
   </si>
   <si>
-    <t>blue-black</t>
-  </si>
-  <si>
-    <t>jet black</t>
-  </si>
-  <si>
     <t>raven</t>
   </si>
   <si>
     <t>ebony</t>
   </si>
   <si>
-    <t>inky black</t>
-  </si>
-  <si>
     <t>midnight</t>
   </si>
   <si>
-    <t>sable</t>
-  </si>
-  <si>
-    <t>salt and pepper</t>
-  </si>
-  <si>
     <t>silver gray</t>
   </si>
   <si>
     <t>silver</t>
   </si>
   <si>
-    <t>charcoal gray</t>
-  </si>
-  <si>
-    <t>steel gray</t>
-  </si>
-  <si>
     <t>white</t>
   </si>
   <si>
-    <t>snow-white</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>brunette</t>
-  </si>
-  <si>
     <t>chocolate brown</t>
   </si>
   <si>
     <t>coffee brown</t>
   </si>
   <si>
-    <t>ash brown</t>
-  </si>
-  <si>
-    <t>brown sugar</t>
-  </si>
-  <si>
-    <t>nut brown</t>
-  </si>
-  <si>
-    <t>caramel</t>
-  </si>
-  <si>
-    <t>tawny brown</t>
-  </si>
-  <si>
-    <t>toffee brown</t>
-  </si>
-  <si>
     <t>red</t>
   </si>
   <si>
-    <t>ginger</t>
-  </si>
-  <si>
     <t>auburn</t>
   </si>
   <si>
-    <t>Titian-haired</t>
-  </si>
-  <si>
     <t>copper</t>
   </si>
   <si>
-    <t>strawberry blonde</t>
-  </si>
-  <si>
-    <t>butterscotch</t>
-  </si>
-  <si>
     <t>honey</t>
   </si>
   <si>
-    <t>wheat</t>
-  </si>
-  <si>
-    <t>blonde</t>
-  </si>
-  <si>
     <t>golden</t>
   </si>
   <si>
-    <t>sandy blonde</t>
-  </si>
-  <si>
-    <t>flaxen</t>
-  </si>
-  <si>
-    <t>fair-haired</t>
-  </si>
-  <si>
-    <t>bleached</t>
-  </si>
-  <si>
     <t>platinum</t>
   </si>
   <si>
@@ -347,9 +269,6 @@
   </si>
   <si>
     <t>multi-colored</t>
-  </si>
-  <si>
-    <t>lime green</t>
   </si>
   <si>
     <t>moss green</t>
@@ -1815,7 +1734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D88"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <selection activeCell="D3" sqref="D1:D3"/>
     </sheetView>
   </sheetViews>
@@ -1833,7 +1752,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1886,299 +1805,299 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>365</v>
+        <v>338</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>364</v>
+        <v>337</v>
       </c>
       <c r="B7" s="6">
         <v>19</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="11"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="11"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="11"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="11"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>400</v>
+        <v>373</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="11"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>381</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="11"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>409</v>
+        <v>382</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>410</v>
+        <v>383</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>411</v>
+        <v>384</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="11"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>412</v>
+        <v>385</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>413</v>
+        <v>386</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>416</v>
+        <v>389</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="11"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="11"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="11"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="11"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="11"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>366</v>
+        <v>339</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="11"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="11"/>
@@ -2191,319 +2110,319 @@
         <v>0.1</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="11"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="11"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>397</v>
+        <v>370</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="11"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>399</v>
+        <v>372</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
       </c>
       <c r="C32" s="10" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="11"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
       </c>
       <c r="C33" s="10" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="11"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>407</v>
+        <v>380</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
       </c>
       <c r="C34" s="10" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="11"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>414</v>
+        <v>387</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
       </c>
       <c r="C35" s="10" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="11"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>415</v>
+        <v>388</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
       </c>
       <c r="C36" s="10" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="11"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>419</v>
+        <v>392</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
       </c>
       <c r="C37" s="10" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="11"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C66" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="11"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>421</v>
+        <v>394</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="11"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>423</v>
+        <v>396</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="11"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>424</v>
+        <v>397</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="11"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>425</v>
+        <v>398</v>
       </c>
       <c r="B42">
         <v>0.1</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="11"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="11"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
       </c>
       <c r="C45" s="10" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="11"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
       </c>
       <c r="C46" s="10" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>373</v>
+        <v>346</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="11"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>374</v>
+        <v>347</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="11"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>375</v>
+        <v>348</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="11"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>376</v>
+        <v>349</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
       </c>
       <c r="C50" s="10" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="11"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>351</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="11"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
       </c>
       <c r="C52" s="10" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="11"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>379</v>
+        <v>352</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="11"/>
@@ -2516,170 +2435,170 @@
         <v>0.1</v>
       </c>
       <c r="C54" s="10" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="11"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>382</v>
+        <v>355</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
       </c>
       <c r="C55" s="10" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="11"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>385</v>
+        <v>358</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
       </c>
       <c r="C56" s="10" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="11"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
       </c>
       <c r="C57" s="10" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="11"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
       </c>
       <c r="C58" s="10" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="11"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
       </c>
       <c r="C59" s="10" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="11"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
       </c>
       <c r="C60" s="10" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="11"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>401</v>
+        <v>374</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
       </c>
       <c r="C61" s="10" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>403</v>
+        <v>376</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
       </c>
       <c r="C62" s="10" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="11"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>417</v>
+        <v>390</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
       </c>
       <c r="C63" s="10" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="11"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>418</v>
+        <v>391</v>
       </c>
       <c r="B64" s="5">
         <v>0.1</v>
       </c>
       <c r="C64" s="10" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="11"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B65" s="5">
         <v>0.1</v>
       </c>
       <c r="C65" s="10" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="11"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>422</v>
+        <v>395</v>
       </c>
       <c r="B66" s="5">
         <v>0.1</v>
       </c>
       <c r="C66" s="10" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="11"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>402</v>
+        <v>375</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="10"/>
@@ -2687,7 +2606,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="10"/>
@@ -2695,7 +2614,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="13" t="s">
-        <v>363</v>
+        <v>336</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
@@ -2703,7 +2622,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>367</v>
+        <v>340</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="10"/>
@@ -2711,7 +2630,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>371</v>
+        <v>344</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
@@ -2719,7 +2638,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>372</v>
+        <v>345</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="10"/>
@@ -2727,7 +2646,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>377</v>
+        <v>350</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="10"/>
@@ -2735,7 +2654,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>380</v>
+        <v>353</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="10"/>
@@ -2743,7 +2662,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>381</v>
+        <v>354</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="10"/>
@@ -2751,7 +2670,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="10"/>
@@ -2759,7 +2678,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="10"/>
@@ -2767,7 +2686,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="10"/>
@@ -2775,7 +2694,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>389</v>
+        <v>362</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="10"/>
@@ -2783,7 +2702,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="10"/>
@@ -2791,7 +2710,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="10"/>
@@ -2799,7 +2718,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>398</v>
+        <v>371</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="10"/>
@@ -2807,7 +2726,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>404</v>
+        <v>377</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="10"/>
@@ -2815,7 +2734,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="10"/>
@@ -2823,7 +2742,7 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>405</v>
+        <v>378</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="10"/>
@@ -2831,7 +2750,7 @@
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B86" s="5"/>
       <c r="C86" s="10"/>
@@ -2839,7 +2758,7 @@
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>426</v>
+        <v>399</v>
       </c>
       <c r="B87" s="5"/>
       <c r="C87" s="10"/>
@@ -2847,7 +2766,7 @@
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>427</v>
+        <v>400</v>
       </c>
       <c r="B88" s="5"/>
       <c r="C88" s="10"/>
@@ -2883,7 +2802,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -2942,7 +2861,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C19" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -2954,7 +2873,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -2966,7 +2885,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -2978,7 +2897,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -2990,7 +2909,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3002,7 +2921,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3014,7 +2933,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3026,7 +2945,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3038,7 +2957,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3050,7 +2969,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3062,7 +2981,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3074,7 +2993,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3086,7 +3005,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3098,7 +3017,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3153,6 +3072,529 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="23.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="6">
+        <v>12</v>
+      </c>
+      <c r="C2" s="6">
+        <f>COUNTIF(C$6:C99, "common")</f>
+        <v>12</v>
+      </c>
+      <c r="D2" s="14">
+        <f>C2/B2</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="6">
+        <f>B2*B2</f>
+        <v>144</v>
+      </c>
+      <c r="C3" s="6">
+        <f>COUNTIF(C$6:C99, "rare")</f>
+        <v>11</v>
+      </c>
+      <c r="D3" s="14">
+        <f>C3/B3</f>
+        <v>7.6388888888888895E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="6">
+        <v>12</v>
+      </c>
+      <c r="C6" s="10" t="str">
+        <f t="shared" ref="C6:C25" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+      <c r="D6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="6">
+        <v>11</v>
+      </c>
+      <c r="C7" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="6">
+        <v>10</v>
+      </c>
+      <c r="C8" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D8" s="9"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="6">
+        <v>9</v>
+      </c>
+      <c r="C9" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D9" s="9"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="6">
+        <v>8</v>
+      </c>
+      <c r="C10" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="6">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="6">
+        <v>6</v>
+      </c>
+      <c r="C12" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5</v>
+      </c>
+      <c r="C13" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="6">
+        <v>3</v>
+      </c>
+      <c r="C15" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="6">
+        <v>2</v>
+      </c>
+      <c r="C16" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D16" s="9"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B17" s="6">
+        <v>1</v>
+      </c>
+      <c r="C17" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B18" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C18" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D18" s="9"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C19" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D19" s="9"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C20" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C21" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C22" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C23" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C24" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C25" s="10" t="str">
+        <f t="shared" si="0"/>
+        <v>rare</v>
+      </c>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B28" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B30" s="6"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B31" s="6"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B32" s="6"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="9"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="9"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="9"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="C47" s="10"/>
+      <c r="D47" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -3174,7 +3616,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3233,7 +3675,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C19" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
     </row>
@@ -3245,7 +3687,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3257,7 +3699,7 @@
         <v>6</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3269,7 +3711,7 @@
         <v>5</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3281,7 +3723,7 @@
         <v>4</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3293,7 +3735,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3305,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3317,7 +3759,7 @@
         <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
     </row>
@@ -3329,7 +3771,7 @@
         <v>0.1</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3341,7 +3783,7 @@
         <v>0.1</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3353,7 +3795,7 @@
         <v>0.1</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3365,7 +3807,7 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3377,7 +3819,7 @@
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3389,7 +3831,7 @@
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
     </row>
@@ -3443,12 +3885,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D3"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3465,7 +3907,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -3476,7 +3918,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="6">
-        <f>COUNTIF(C$6:C109, "common")</f>
+        <f>COUNTIF(C$6:C103, "common")</f>
         <v>20</v>
       </c>
       <c r="D2" s="14">
@@ -3493,12 +3935,12 @@
         <v>400</v>
       </c>
       <c r="C3" s="6">
-        <f>COUNTIF(C$6:C109, "rare")</f>
-        <v>39</v>
+        <f>COUNTIF(C$6:C103, "rare")</f>
+        <v>41</v>
       </c>
       <c r="D3" s="14">
         <f>C3/B3</f>
-        <v>9.7500000000000003E-2</v>
+        <v>0.10249999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -3518,59 +3960,59 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="B6" s="6">
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C47" si="0">IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-      <c r="D6" s="9"/>
+        <f t="shared" ref="C6:C42" si="0">IF(B6&gt;=1, "common", "rare")</f>
+        <v>common</v>
+      </c>
+      <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>125</v>
       </c>
       <c r="B7" s="6">
         <v>19</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f t="shared" ref="C7" si="1">IF(B7&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-      <c r="D7" s="9"/>
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8">
+        <v>90</v>
+      </c>
+      <c r="B8" s="6">
         <v>18</v>
       </c>
       <c r="C8" s="10" t="str">
         <f t="shared" si="0"/>
         <v>common</v>
       </c>
-      <c r="D8" s="9"/>
+      <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f t="shared" ref="C9" si="2">IF(B9&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-      <c r="D9" s="9"/>
+        <f t="shared" si="0"/>
+        <v>common</v>
+      </c>
+      <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="11" t="s">
-        <v>97</v>
+      <c r="A10" t="s">
+        <v>98</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -3582,10 +4024,10 @@
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B11">
+      <c r="A11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="6">
         <v>15</v>
       </c>
       <c r="C11" s="10" t="str">
@@ -3596,7 +4038,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -3609,859 +4051,12 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f t="shared" ref="C13" si="3">IF(B13&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14">
-        <v>12</v>
-      </c>
-      <c r="C14" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D14" s="8"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="6">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="str">
-        <f t="shared" ref="C15" si="4">IF(B15&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-      <c r="D15" s="8"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B16" s="6">
-        <v>10</v>
-      </c>
-      <c r="C16" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D16" s="8"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17" s="10" t="str">
-        <f t="shared" ref="C17" si="5">IF(B17&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-      <c r="D17" s="8"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B18" s="6">
-        <v>8</v>
-      </c>
-      <c r="C18" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D18" s="8"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="6">
-        <v>7</v>
-      </c>
-      <c r="C19" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D19" s="8"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B20">
-        <v>6</v>
-      </c>
-      <c r="C20" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D20" s="8"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B21" s="6">
-        <v>5</v>
-      </c>
-      <c r="C21" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D21" s="8"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="6">
-        <v>4</v>
-      </c>
-      <c r="C22" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D22" s="8"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23">
-        <v>3</v>
-      </c>
-      <c r="C23" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2</v>
-      </c>
-      <c r="C24" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D24" s="8"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="B25" s="6">
-        <v>1</v>
-      </c>
-      <c r="C25" s="10" t="str">
-        <f t="shared" ref="C25" si="6">IF(B25&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-      <c r="D25" s="8"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>95</v>
-      </c>
-      <c r="B26">
-        <v>0.1</v>
-      </c>
-      <c r="C26" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D26" s="8"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27">
-        <v>0.1</v>
-      </c>
-      <c r="C27" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>93</v>
-      </c>
-      <c r="B28">
-        <v>0.1</v>
-      </c>
-      <c r="C28" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D28" s="8"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29">
-        <v>0.1</v>
-      </c>
-      <c r="C29" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D29" s="8"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30">
-        <v>0.1</v>
-      </c>
-      <c r="C30" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D30" s="8"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="B31">
-        <v>0.1</v>
-      </c>
-      <c r="C31" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D31" s="8"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32">
-        <v>0.1</v>
-      </c>
-      <c r="C32" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D32" s="8"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33">
-        <v>0.1</v>
-      </c>
-      <c r="C33" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D33" s="8"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>86</v>
-      </c>
-      <c r="B34">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D34" s="8"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B35">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D35" s="8"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B36">
-        <v>0.1</v>
-      </c>
-      <c r="C36" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D36" s="8"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>80</v>
-      </c>
-      <c r="B37">
-        <v>0.1</v>
-      </c>
-      <c r="C37" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D37" s="8"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38">
-        <v>0.1</v>
-      </c>
-      <c r="C38" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D38" s="8"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39">
-        <v>0.1</v>
-      </c>
-      <c r="C39" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D39" s="8"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40">
-        <v>0.1</v>
-      </c>
-      <c r="C40" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D40" s="8"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>77</v>
-      </c>
-      <c r="B41">
-        <v>0.1</v>
-      </c>
-      <c r="C41" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D41" s="8"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>76</v>
-      </c>
-      <c r="B42">
-        <v>0.1</v>
-      </c>
-      <c r="C42" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D42" s="8"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43">
-        <v>0.1</v>
-      </c>
-      <c r="C43" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D43" s="8"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B44">
-        <v>0.1</v>
-      </c>
-      <c r="C44" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D44" s="8"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>73</v>
-      </c>
-      <c r="B45">
-        <v>0.1</v>
-      </c>
-      <c r="C45" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D45" s="8"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B46">
-        <v>0.1</v>
-      </c>
-      <c r="C46" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D46" s="8"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47">
-        <v>0.1</v>
-      </c>
-      <c r="C47" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>rare</v>
-      </c>
-      <c r="D47" s="8"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>70</v>
-      </c>
-      <c r="B48">
-        <v>0.1</v>
-      </c>
-      <c r="C48" s="10" t="str">
-        <f t="shared" ref="C48:C64" si="7">IF(B48&gt;=1, "common", "rare")</f>
-        <v>rare</v>
-      </c>
-      <c r="D48" s="8"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>68</v>
-      </c>
-      <c r="B49">
-        <v>0.1</v>
-      </c>
-      <c r="C49" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D49" s="8"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50">
-        <v>0.1</v>
-      </c>
-      <c r="C50" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D50" s="8"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>65</v>
-      </c>
-      <c r="B51">
-        <v>0.1</v>
-      </c>
-      <c r="C51" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D51" s="8"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>64</v>
-      </c>
-      <c r="B52">
-        <v>0.1</v>
-      </c>
-      <c r="C52" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D52" s="8"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>63</v>
-      </c>
-      <c r="B53">
-        <v>0.1</v>
-      </c>
-      <c r="C53" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D53" s="8"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54">
-        <v>0.1</v>
-      </c>
-      <c r="C54" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D54" s="8"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55">
-        <v>0.1</v>
-      </c>
-      <c r="C55" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D55" s="9"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>60</v>
-      </c>
-      <c r="B56">
-        <v>0.1</v>
-      </c>
-      <c r="C56" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D56" s="9"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57">
-        <v>0.1</v>
-      </c>
-      <c r="C57" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D57" s="9"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>58</v>
-      </c>
-      <c r="B58">
-        <v>0.1</v>
-      </c>
-      <c r="C58" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D58" s="8"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59">
-        <v>0.1</v>
-      </c>
-      <c r="C59" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D59" s="8"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B60">
-        <v>0.1</v>
-      </c>
-      <c r="C60" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D60" s="9"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B61">
-        <v>0.1</v>
-      </c>
-      <c r="C61" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D61" s="8"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62">
-        <v>0.1</v>
-      </c>
-      <c r="C62" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D62" s="8"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B63">
-        <v>0.1</v>
-      </c>
-      <c r="C63" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-      <c r="D63" s="9"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B64">
-        <v>0.1</v>
-      </c>
-      <c r="C64" s="10" t="str">
-        <f t="shared" si="7"/>
-        <v>rare</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState ref="A6:C54">
-    <sortCondition descending="1" ref="B6"/>
-  </sortState>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D66"/>
-  <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="23.83203125" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="6">
-        <v>20</v>
-      </c>
-      <c r="C2" s="6">
-        <f>COUNTIF(C$6:C103, "common")</f>
-        <v>20</v>
-      </c>
-      <c r="D2" s="14">
-        <f>C2/B2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="6">
-        <f>B2*B2</f>
-        <v>400</v>
-      </c>
-      <c r="C3" s="6">
-        <f>COUNTIF(C$6:C103, "rare")</f>
-        <v>41</v>
-      </c>
-      <c r="D3" s="14">
-        <f>C3/B3</f>
-        <v>0.10249999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>146</v>
-      </c>
-      <c r="B6" s="6">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10" t="str">
-        <f t="shared" ref="C6:C42" si="0">IF(B6&gt;=1, "common", "rare")</f>
-        <v>common</v>
-      </c>
-      <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="6">
-        <v>19</v>
-      </c>
-      <c r="C7" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="6">
-        <v>18</v>
-      </c>
-      <c r="C8" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="6">
-        <v>17</v>
-      </c>
-      <c r="C9" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10" s="6">
-        <v>16</v>
-      </c>
-      <c r="C10" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>112</v>
-      </c>
-      <c r="B11" s="6">
-        <v>15</v>
-      </c>
-      <c r="C11" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B12" s="6">
-        <v>14</v>
-      </c>
-      <c r="C12" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>common</v>
-      </c>
-      <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B13" s="6">
-        <v>13</v>
-      </c>
-      <c r="C13" s="10" t="str">
         <f t="shared" si="0"/>
         <v>common</v>
       </c>
@@ -4469,7 +4064,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
@@ -4495,7 +4090,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
@@ -4508,7 +4103,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -4521,7 +4116,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
@@ -4534,7 +4129,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -4547,7 +4142,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -4560,7 +4155,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -4573,7 +4168,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -4586,7 +4181,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -4599,31 +4194,31 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B24" s="5">
         <v>2</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="B25" s="5">
         <v>1</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>428</v>
+        <v>401</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -4636,7 +4231,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -4649,7 +4244,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>119</v>
+        <v>92</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -4662,7 +4257,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>121</v>
+        <v>94</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -4675,7 +4270,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -4688,7 +4283,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -4701,7 +4296,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>97</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -4714,7 +4309,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>106</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
@@ -4727,7 +4322,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -4740,7 +4335,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -4753,7 +4348,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>137</v>
+        <v>110</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -4779,7 +4374,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -4792,7 +4387,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -4805,7 +4400,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -4818,7 +4413,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -4831,7 +4426,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -4844,7 +4439,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -4857,7 +4452,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
@@ -4870,7 +4465,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -4883,7 +4478,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -4909,7 +4504,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
@@ -4922,7 +4517,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>126</v>
+        <v>99</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
@@ -4935,7 +4530,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>100</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
@@ -4948,7 +4543,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>101</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
@@ -4961,7 +4556,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
@@ -4974,7 +4569,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>103</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
@@ -4987,7 +4582,7 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
@@ -5000,7 +4595,7 @@
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>132</v>
+        <v>105</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
@@ -5013,7 +4608,7 @@
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>134</v>
+        <v>107</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
@@ -5026,7 +4621,7 @@
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>112</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
@@ -5039,7 +4634,7 @@
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
@@ -5052,7 +4647,7 @@
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
@@ -5065,7 +4660,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
@@ -5078,7 +4673,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
@@ -5091,7 +4686,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>144</v>
+        <v>117</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
@@ -5104,7 +4699,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>118</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
@@ -5117,7 +4712,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
@@ -5130,7 +4725,7 @@
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
@@ -5143,7 +4738,7 @@
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>130</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
@@ -5184,7 +4779,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5233,7 +4828,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>433</v>
+        <v>406</v>
       </c>
       <c r="B6" s="5">
         <v>2</v>
@@ -5245,7 +4840,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>431</v>
+        <v>404</v>
       </c>
       <c r="B7" s="5">
         <v>1</v>
@@ -5257,7 +4852,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>430</v>
+        <v>403</v>
       </c>
       <c r="B8" s="5">
         <v>0.1</v>
@@ -5305,7 +4900,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>432</v>
+        <v>405</v>
       </c>
       <c r="B12" s="5">
         <v>0.1</v>
@@ -5317,7 +4912,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>429</v>
+        <v>402</v>
       </c>
       <c r="B13" s="5">
         <v>0.1</v>
@@ -5393,7 +4988,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5445,7 +5040,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="B6" s="5">
         <v>5</v>
@@ -5593,7 +5188,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -5646,143 +5241,143 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>335</v>
+        <v>308</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C32" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>343</v>
+        <v>316</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>337</v>
+        <v>310</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>336</v>
+        <v>309</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>344</v>
+        <v>317</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>334</v>
+        <v>307</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>346</v>
+        <v>319</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>353</v>
+        <v>326</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="8"/>
@@ -5795,209 +5390,209 @@
         <v>1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>333</v>
+        <v>306</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>357</v>
+        <v>330</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="8"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>332</v>
+        <v>305</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>340</v>
+        <v>313</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>341</v>
+        <v>314</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>342</v>
+        <v>315</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>347</v>
+        <v>320</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>348</v>
+        <v>321</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>352</v>
+        <v>325</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>361</v>
+        <v>334</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>362</v>
+        <v>335</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
       </c>
       <c r="C32" s="10" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="8"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>354</v>
+        <v>327</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
@@ -6005,7 +5600,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="B34" s="5"/>
       <c r="C34" s="10"/>
@@ -6013,7 +5608,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>345</v>
+        <v>318</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="10"/>
@@ -6021,7 +5616,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>349</v>
+        <v>322</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="10"/>
@@ -6029,7 +5624,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>350</v>
+        <v>323</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="10"/>
@@ -6037,7 +5632,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
@@ -6045,7 +5640,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
@@ -6053,7 +5648,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
@@ -6324,7 +5919,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -6383,7 +5978,7 @@
         <v>20</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C37" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="2"/>
@@ -6396,781 +5991,781 @@
         <v>19</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B14" s="6">
         <v>12</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B15" s="6">
         <v>11</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B16" s="6">
         <v>10</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B18" s="6">
         <v>8</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>293</v>
+        <v>266</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>294</v>
+        <v>267</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>295</v>
+        <v>268</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
       </c>
       <c r="C32" s="10" t="str">
-        <f>IF(B32&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>296</v>
+        <v>269</v>
       </c>
       <c r="B33" s="6">
         <v>0.1</v>
       </c>
       <c r="C33" s="10" t="str">
-        <f>IF(B33&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
       </c>
       <c r="C34" s="10" t="str">
-        <f>IF(B34&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
       </c>
       <c r="C35" s="10" t="str">
-        <f>IF(B35&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>297</v>
+        <v>270</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
       </c>
       <c r="C36" s="10" t="str">
-        <f>IF(B36&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
       </c>
       <c r="C37" s="10" t="str">
-        <f>IF(B37&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>301</v>
+        <v>274</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
       </c>
       <c r="C38" s="10" t="str">
-        <f>IF(B38&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C38:C66" si="1">IF(B38&gt;=1, "common", "rare")</f>
         <v>rare</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>302</v>
+        <v>275</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
       </c>
       <c r="C39" s="10" t="str">
-        <f>IF(B39&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>303</v>
+        <v>276</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
       </c>
       <c r="C40" s="10" t="str">
-        <f>IF(B40&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>304</v>
+        <v>277</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
       </c>
       <c r="C41" s="10" t="str">
-        <f>IF(B41&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>306</v>
+        <v>279</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
       </c>
       <c r="C42" s="10" t="str">
-        <f>IF(B42&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>307</v>
+        <v>280</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
       </c>
       <c r="C43" s="10" t="str">
-        <f>IF(B43&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D43" s="2"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>308</v>
+        <v>281</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
       </c>
       <c r="C44" s="10" t="str">
-        <f>IF(B44&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D44" s="2"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>309</v>
+        <v>282</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
       </c>
       <c r="C45" s="10" t="str">
-        <f>IF(B45&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D45" s="2"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
       </c>
       <c r="C46" s="10" t="str">
-        <f>IF(B46&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D46" s="2"/>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>312</v>
+        <v>285</v>
       </c>
       <c r="B47" s="6">
         <v>0.1</v>
       </c>
       <c r="C47" s="10" t="str">
-        <f>IF(B47&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D47" s="2"/>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>313</v>
+        <v>286</v>
       </c>
       <c r="B48" s="6">
         <v>0.1</v>
       </c>
       <c r="C48" s="10" t="str">
-        <f>IF(B48&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D48" s="2"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>314</v>
+        <v>287</v>
       </c>
       <c r="B49" s="6">
         <v>0.1</v>
       </c>
       <c r="C49" s="10" t="str">
-        <f>IF(B49&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D49" s="2"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>315</v>
+        <v>288</v>
       </c>
       <c r="B50" s="6">
         <v>0.1</v>
       </c>
       <c r="C50" s="10" t="str">
-        <f>IF(B50&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B51" s="6">
         <v>0.1</v>
       </c>
       <c r="C51" s="10" t="str">
-        <f>IF(B51&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D51" s="2"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>316</v>
+        <v>289</v>
       </c>
       <c r="B52" s="6">
         <v>0.1</v>
       </c>
       <c r="C52" s="10" t="str">
-        <f>IF(B52&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D52" s="2"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>70</v>
       </c>
       <c r="B53" s="6">
         <v>0.1</v>
       </c>
       <c r="C53" s="10" t="str">
-        <f>IF(B53&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D53" s="2"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>317</v>
+        <v>290</v>
       </c>
       <c r="B54" s="6">
         <v>0.1</v>
       </c>
       <c r="C54" s="10" t="str">
-        <f>IF(B54&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D54" s="2"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>318</v>
+        <v>291</v>
       </c>
       <c r="B55" s="6">
         <v>0.1</v>
       </c>
       <c r="C55" s="10" t="str">
-        <f>IF(B55&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D55" s="2"/>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>319</v>
+        <v>292</v>
       </c>
       <c r="B56" s="6">
         <v>0.1</v>
       </c>
       <c r="C56" s="10" t="str">
-        <f>IF(B56&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D56" s="2"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="B57" s="6">
         <v>0.1</v>
       </c>
       <c r="C57" s="10" t="str">
-        <f>IF(B57&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D57" s="2"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>322</v>
+        <v>295</v>
       </c>
       <c r="B58" s="6">
         <v>0.1</v>
       </c>
       <c r="C58" s="10" t="str">
-        <f>IF(B58&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>323</v>
+        <v>296</v>
       </c>
       <c r="B59" s="6">
         <v>0.1</v>
       </c>
       <c r="C59" s="10" t="str">
-        <f>IF(B59&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="B60" s="6">
         <v>0.1</v>
       </c>
       <c r="C60" s="10" t="str">
-        <f>IF(B60&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D60" s="2"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="B61" s="6">
         <v>0.1</v>
       </c>
       <c r="C61" s="10" t="str">
-        <f>IF(B61&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D61" s="2"/>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>326</v>
+        <v>299</v>
       </c>
       <c r="B62" s="6">
         <v>0.1</v>
       </c>
       <c r="C62" s="10" t="str">
-        <f>IF(B62&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D62" s="2"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="B63" s="6">
         <v>0.1</v>
       </c>
       <c r="C63" s="10" t="str">
-        <f>IF(B63&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D63" s="2"/>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>331</v>
+        <v>304</v>
       </c>
       <c r="B64" s="6">
         <v>0.1</v>
       </c>
       <c r="C64" s="10" t="str">
-        <f>IF(B64&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D64" s="2"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="B65" s="6">
         <v>0.1</v>
       </c>
       <c r="C65" s="10" t="str">
-        <f>IF(B65&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D65" s="2"/>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="B66" s="6">
         <v>0.1</v>
       </c>
       <c r="C66" s="10" t="str">
-        <f>IF(B66&gt;=1, "common", "rare")</f>
+        <f t="shared" si="1"/>
         <v>rare</v>
       </c>
       <c r="D66" s="2"/>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>289</v>
+        <v>262</v>
       </c>
       <c r="B67" s="6"/>
       <c r="C67" s="10"/>
@@ -7178,7 +6773,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>290</v>
+        <v>263</v>
       </c>
       <c r="B68" s="6"/>
       <c r="C68" s="10"/>
@@ -7186,7 +6781,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>291</v>
+        <v>264</v>
       </c>
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
@@ -7194,7 +6789,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B70" s="6"/>
       <c r="C70" s="10"/>
@@ -7202,7 +6797,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>292</v>
+        <v>265</v>
       </c>
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
@@ -7210,7 +6805,7 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>298</v>
+        <v>271</v>
       </c>
       <c r="B72" s="6"/>
       <c r="C72" s="10"/>
@@ -7218,7 +6813,7 @@
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>299</v>
+        <v>272</v>
       </c>
       <c r="B73" s="6"/>
       <c r="C73" s="10"/>
@@ -7226,7 +6821,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>305</v>
+        <v>278</v>
       </c>
       <c r="B74" s="6"/>
       <c r="C74" s="10"/>
@@ -7234,7 +6829,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>311</v>
+        <v>284</v>
       </c>
       <c r="B75" s="6"/>
       <c r="C75" s="10"/>
@@ -7242,7 +6837,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="B76" s="6"/>
       <c r="C76" s="10"/>
@@ -7250,7 +6845,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>324</v>
+        <v>297</v>
       </c>
       <c r="B77" s="6"/>
       <c r="C77" s="10"/>
@@ -7258,7 +6853,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>329</v>
+        <v>302</v>
       </c>
       <c r="B78" s="6"/>
       <c r="C78" s="10"/>
@@ -7266,7 +6861,7 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>330</v>
+        <v>303</v>
       </c>
       <c r="B79" s="6"/>
       <c r="C79" s="10"/>
@@ -7274,7 +6869,7 @@
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B80" s="6"/>
       <c r="C80" s="10"/>
@@ -7282,7 +6877,7 @@
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>282</v>
+        <v>255</v>
       </c>
       <c r="B81" s="6"/>
       <c r="C81" s="10"/>
@@ -7290,7 +6885,7 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="B82" s="6"/>
       <c r="C82" s="10"/>
@@ -7298,7 +6893,7 @@
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>283</v>
+        <v>256</v>
       </c>
       <c r="B83" s="6"/>
       <c r="C83" s="10"/>
@@ -7306,7 +6901,7 @@
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B84" s="6"/>
       <c r="C84" s="10"/>
@@ -7314,35 +6909,35 @@
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>284</v>
+        <v>257</v>
       </c>
       <c r="B85" s="6"/>
       <c r="C85" s="10"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
-        <v>285</v>
+        <v>258</v>
       </c>
       <c r="B86" s="6"/>
       <c r="C86" s="10"/>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
-        <v>286</v>
+        <v>259</v>
       </c>
       <c r="B87" s="6"/>
       <c r="C87" s="10"/>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="B88" s="6"/>
       <c r="C88" s="10"/>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="B89" s="6"/>
       <c r="C89" s="10"/>
@@ -7377,7 +6972,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7430,143 +7025,143 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C19" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="11"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B7" s="6">
         <v>8</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="11"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B9" s="6">
         <v>6</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B10" s="6">
         <v>4</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B12" s="6">
         <v>2</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="9"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="9"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>275</v>
+        <v>248</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D14" s="11"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>278</v>
+        <v>251</v>
       </c>
       <c r="B15" s="6">
         <v>0.1</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D15" s="11"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>279</v>
+        <v>252</v>
       </c>
       <c r="B16" s="6">
         <v>0.1</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D16" s="11"/>
@@ -7579,40 +7174,40 @@
         <v>0.1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D17" s="11"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="13" t="s">
-        <v>280</v>
+        <v>253</v>
       </c>
       <c r="B18">
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="11"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="11"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="13" t="s">
-        <v>276</v>
+        <v>249</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="10"/>
@@ -7620,7 +7215,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="13" t="s">
-        <v>277</v>
+        <v>250</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="10"/>
@@ -7824,7 +7419,7 @@
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7841,7 +7436,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -7894,7 +7489,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -7920,7 +7515,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
@@ -7933,7 +7528,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
@@ -7946,7 +7541,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
@@ -7959,7 +7554,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
@@ -7972,7 +7567,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B12" s="6">
         <v>6</v>
@@ -7985,7 +7580,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
@@ -7998,7 +7593,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
       <c r="B14">
         <v>4</v>
@@ -8011,7 +7606,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
@@ -8024,7 +7619,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
@@ -8037,7 +7632,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
@@ -8050,7 +7645,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -8063,7 +7658,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -8076,7 +7671,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
@@ -8089,7 +7684,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -8102,7 +7697,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
@@ -8115,7 +7710,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
@@ -8128,7 +7723,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
@@ -8141,7 +7736,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
@@ -8154,7 +7749,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -8166,7 +7761,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -8178,7 +7773,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>260</v>
+        <v>233</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -8190,7 +7785,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="10"/>
@@ -8198,7 +7793,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>255</v>
+        <v>228</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="10"/>
@@ -8206,7 +7801,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="10"/>
@@ -8214,7 +7809,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
@@ -8222,7 +7817,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>259</v>
+        <v>232</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
@@ -8230,7 +7825,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>262</v>
+        <v>235</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
@@ -8238,7 +7833,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>263</v>
+        <v>236</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="10"/>
@@ -8246,7 +7841,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>264</v>
+        <v>237</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="10"/>
@@ -8254,7 +7849,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="10"/>
@@ -8262,7 +7857,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="10"/>
@@ -8270,7 +7865,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>267</v>
+        <v>240</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="10"/>
@@ -8278,7 +7873,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="10"/>
@@ -8286,7 +7881,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="10"/>
@@ -8294,7 +7889,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>270</v>
+        <v>243</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="10"/>
@@ -8302,7 +7897,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>271</v>
+        <v>244</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="10"/>
@@ -8310,7 +7905,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>272</v>
+        <v>245</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="10"/>
@@ -8318,7 +7913,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>273</v>
+        <v>246</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="10"/>
@@ -8326,7 +7921,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>274</v>
+        <v>247</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="10"/>
@@ -8367,7 +7962,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -8420,7 +8015,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="B6">
         <v>20</v>
@@ -8433,7 +8028,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="B7">
         <v>19</v>
@@ -8446,7 +8041,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="B8" s="6">
         <v>18</v>
@@ -8459,7 +8054,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>197</v>
       </c>
       <c r="B9" s="6">
         <v>17</v>
@@ -8472,7 +8067,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="B10" s="6">
         <v>16</v>
@@ -8485,7 +8080,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="B11" s="6">
         <v>15</v>
@@ -8498,7 +8093,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="B12" s="6">
         <v>14</v>
@@ -8511,7 +8106,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="B13" s="6">
         <v>13</v>
@@ -8524,7 +8119,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="B14">
         <v>12</v>
@@ -8537,7 +8132,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="B15">
         <v>11</v>
@@ -8550,7 +8145,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="B16">
         <v>10</v>
@@ -8563,7 +8158,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="B17" s="6">
         <v>9</v>
@@ -8589,7 +8184,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B19" s="6">
         <v>7</v>
@@ -8602,7 +8197,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B20" s="6">
         <v>6</v>
@@ -8615,7 +8210,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B21" s="6">
         <v>5</v>
@@ -8628,7 +8223,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B22" s="6">
         <v>4</v>
@@ -8641,7 +8236,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B23" s="6">
         <v>3</v>
@@ -8654,7 +8249,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B24" s="6">
         <v>2</v>
@@ -8667,7 +8262,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="B25" s="6">
         <v>1</v>
@@ -8680,7 +8275,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
@@ -8693,7 +8288,7 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
@@ -8706,7 +8301,7 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
@@ -8719,7 +8314,7 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
@@ -8732,7 +8327,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>213</v>
+        <v>186</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
@@ -8745,7 +8340,7 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
@@ -8758,7 +8353,7 @@
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="B32" s="6">
         <v>0.1</v>
@@ -8784,7 +8379,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="B34" s="6">
         <v>0.1</v>
@@ -8797,7 +8392,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="B35" s="6">
         <v>0.1</v>
@@ -8810,7 +8405,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="B36" s="6">
         <v>0.1</v>
@@ -8823,7 +8418,7 @@
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>225</v>
+        <v>198</v>
       </c>
       <c r="B37" s="6">
         <v>0.1</v>
@@ -8836,7 +8431,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="B38" s="6">
         <v>0.1</v>
@@ -8849,7 +8444,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="B39" s="6">
         <v>0.1</v>
@@ -8862,7 +8457,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="B40" s="6">
         <v>0.1</v>
@@ -8875,7 +8470,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B41" s="6">
         <v>0.1</v>
@@ -8888,7 +8483,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="B42" s="6">
         <v>0.1</v>
@@ -8901,7 +8496,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>235</v>
+        <v>208</v>
       </c>
       <c r="B43" s="6">
         <v>0.1</v>
@@ -8914,7 +8509,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>236</v>
+        <v>209</v>
       </c>
       <c r="B44" s="6">
         <v>0.1</v>
@@ -8927,7 +8522,7 @@
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>237</v>
+        <v>210</v>
       </c>
       <c r="B45" s="6">
         <v>0.1</v>
@@ -8940,7 +8535,7 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>238</v>
+        <v>211</v>
       </c>
       <c r="B46" s="6">
         <v>0.1</v>
@@ -8953,7 +8548,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="B47">
         <v>0.1</v>
@@ -8966,7 +8561,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="10"/>
@@ -8974,7 +8569,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="10"/>
@@ -8982,7 +8577,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="10"/>
@@ -8990,21 +8585,21 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>241</v>
+        <v>214</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="9"/>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="9"/>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="9"/>
@@ -9039,7 +8634,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9092,7 +8687,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B6" s="6">
         <v>8</v>
@@ -9105,7 +8700,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B7" s="6">
         <v>7</v>
@@ -9118,7 +8713,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B8" s="6">
         <v>6</v>
@@ -9131,7 +8726,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="B9" s="6">
         <v>5</v>
@@ -9144,7 +8739,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B10" s="6">
         <v>4</v>
@@ -9157,7 +8752,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="B11" s="6">
         <v>3</v>
@@ -9170,7 +8765,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B12" s="6">
         <v>2</v>
@@ -9183,7 +8778,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="B13" s="6">
         <v>1</v>
@@ -9196,7 +8791,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="B14" s="6">
         <v>0.1</v>
@@ -9209,7 +8804,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="B15" s="6">
         <v>0.1</v>
@@ -9222,7 +8817,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="11" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B16" s="6">
         <v>0.1</v>
@@ -9235,7 +8830,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="11" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="B17" s="6">
         <v>0.1</v>
@@ -9248,7 +8843,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
@@ -9261,7 +8856,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
@@ -9434,7 +9029,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9487,78 +9082,78 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
       </c>
       <c r="C6" s="10" t="str">
-        <f>IF(B6&gt;=1, "common", "rare")</f>
+        <f t="shared" ref="C6:C31" si="0">IF(B6&gt;=1, "common", "rare")</f>
         <v>common</v>
       </c>
       <c r="D6" s="8"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
       <c r="B7" s="6">
         <v>11</v>
       </c>
       <c r="C7" s="10" t="str">
-        <f>IF(B7&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="B8" s="6">
         <v>10</v>
       </c>
       <c r="C8" s="10" t="str">
-        <f>IF(B8&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D8" s="8"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="B9" s="6">
         <v>9</v>
       </c>
       <c r="C9" s="10" t="str">
-        <f>IF(B9&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D9" s="8"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="B10" s="6">
         <v>8</v>
       </c>
       <c r="C10" s="10" t="str">
-        <f>IF(B10&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D10" s="8"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="10" t="str">
-        <f>IF(B11&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D11" s="8"/>
@@ -9571,261 +9166,261 @@
         <v>6</v>
       </c>
       <c r="C12" s="10" t="str">
-        <f>IF(B12&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D12" s="8"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>178</v>
+        <v>151</v>
       </c>
       <c r="B13" s="6">
         <v>5</v>
       </c>
       <c r="C13" s="10" t="str">
-        <f>IF(B13&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D13" s="8"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="B14" s="6">
         <v>4</v>
       </c>
       <c r="C14" s="10" t="str">
-        <f>IF(B14&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D14" s="8"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="B15" s="6">
         <v>3</v>
       </c>
       <c r="C15" s="10" t="str">
-        <f>IF(B15&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D15" s="8"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="B16" s="6">
         <v>2</v>
       </c>
       <c r="C16" s="10" t="str">
-        <f>IF(B16&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D16" s="8"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="B17" s="6">
         <v>1</v>
       </c>
       <c r="C17" s="10" t="str">
-        <f>IF(B17&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>common</v>
       </c>
       <c r="D17" s="8"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="B18" s="6">
         <v>0.1</v>
       </c>
       <c r="C18" s="10" t="str">
-        <f>IF(B18&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D18" s="8"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="B19" s="6">
         <v>0.1</v>
       </c>
       <c r="C19" s="10" t="str">
-        <f>IF(B19&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="B20" s="6">
         <v>0.1</v>
       </c>
       <c r="C20" s="10" t="str">
-        <f>IF(B20&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D20" s="8"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
       </c>
       <c r="C21" s="10" t="str">
-        <f>IF(B21&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D21" s="8"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="B22" s="6">
         <v>0.1</v>
       </c>
       <c r="C22" s="10" t="str">
-        <f>IF(B22&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D22" s="8"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>187</v>
+        <v>160</v>
       </c>
       <c r="B23" s="6">
         <v>0.1</v>
       </c>
       <c r="C23" s="10" t="str">
-        <f>IF(B23&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D23" s="8"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="B24" s="6">
         <v>0.1</v>
       </c>
       <c r="C24" s="10" t="str">
-        <f>IF(B24&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D24" s="8"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="B25" s="6">
         <v>0.1</v>
       </c>
       <c r="C25" s="10" t="str">
-        <f>IF(B25&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D25" s="8"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>179</v>
+        <v>152</v>
       </c>
       <c r="B26" s="6">
         <v>0.1</v>
       </c>
       <c r="C26" s="10" t="str">
-        <f>IF(B26&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D26" s="8"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="B27" s="6">
         <v>0.1</v>
       </c>
       <c r="C27" s="10" t="str">
-        <f>IF(B27&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="B28" s="6">
         <v>0.1</v>
       </c>
       <c r="C28" s="10" t="str">
-        <f>IF(B28&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D28" s="8"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B29" s="6">
         <v>0.1</v>
       </c>
       <c r="C29" s="10" t="str">
-        <f>IF(B29&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D29" s="8"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="B30" s="6">
         <v>0.1</v>
       </c>
       <c r="C30" s="10" t="str">
-        <f>IF(B30&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D30" s="8"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="B31" s="6">
         <v>0.1</v>
       </c>
       <c r="C31" s="10" t="str">
-        <f>IF(B31&gt;=1, "common", "rare")</f>
+        <f t="shared" si="0"/>
         <v>rare</v>
       </c>
       <c r="D31" s="8"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="10"/>
@@ -9833,7 +9428,7 @@
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>199</v>
+        <v>172</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="10"/>
@@ -9841,7 +9436,7 @@
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>180</v>
+        <v>153</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="10"/>
@@ -9849,7 +9444,7 @@
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>181</v>
+        <v>154</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="10"/>
@@ -9857,7 +9452,7 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="10"/>
@@ -9893,7 +9488,7 @@
         <v>20</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -9946,7 +9541,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="B6" s="6">
         <v>12</v>
@@ -9959,7 +9554,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="B7" s="5">
         <v>11</v>
@@ -9972,7 +9567,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="B8" s="5">
         <v>10</v>
@@ -9998,7 +9593,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B10" s="5">
         <v>8</v>
@@ -10011,7 +9606,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>171</v>
+        <v>144</v>
       </c>
       <c r="B11" s="5">
         <v>7</v>
@@ -10024,7 +9619,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>169</v>
+        <v>142</v>
       </c>
       <c r="B12" s="5">
         <v>6</v>
@@ -10037,7 +9632,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>168</v>
+        <v>141</v>
       </c>
       <c r="B13" s="5">
         <v>5</v>
@@ -10050,7 +9645,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>166</v>
+        <v>139</v>
       </c>
       <c r="B14" s="5">
         <v>4</v>
@@ -10063,7 +9658,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5">
         <v>3</v>
@@ -10076,7 +9671,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B16" s="5">
         <v>2</v>
@@ -10089,7 +9684,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="B17" s="5">
         <v>1</v>
@@ -10102,7 +9697,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>167</v>
+        <v>140</v>
       </c>
       <c r="B18" s="5">
         <v>0.1</v>
@@ -10115,7 +9710,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="B19" s="5">
         <v>0.1</v>
@@ -10128,7 +9723,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="B20" s="5">
         <v>0.1</v>
@@ -10141,7 +9736,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B21" s="6">
         <v>0.1</v>
@@ -10154,7 +9749,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>161</v>
+        <v>134</v>
       </c>
       <c r="B22" s="5">
         <v>0.1</v>
@@ -10167,7 +9762,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="B23" s="5">
         <v>0.1</v>
@@ -10180,7 +9775,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>163</v>
+        <v>136</v>
       </c>
       <c r="B24" s="5">
         <v>0.1</v>
@@ -10193,7 +9788,7 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="B25" s="5">
         <v>0.1</v>
@@ -10206,7 +9801,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>170</v>
+        <v>143</v>
       </c>
       <c r="B26" s="5">
         <v>0.1</v>
